--- a/BackTest/2020-01-11 BackTest IPX.xlsx
+++ b/BackTest/2020-01-11 BackTest IPX.xlsx
@@ -2586,14 +2586,20 @@
         <v>43.25933333333337</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>43.2</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2621,14 +2627,20 @@
         <v>43.25450000000003</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>43.2</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2663,7 +2675,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2698,7 +2714,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2733,7 +2753,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2768,7 +2792,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2803,7 +2831,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2838,7 +2870,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2866,14 +2902,20 @@
         <v>43.23033333333334</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>43.1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2901,14 +2943,20 @@
         <v>43.22716666666668</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>43.09</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2943,7 +2991,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2978,7 +3030,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3006,14 +3062,20 @@
         <v>43.21716666666667</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>43.1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3041,14 +3103,20 @@
         <v>43.21400000000001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>43.09</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3076,14 +3144,20 @@
         <v>43.21083333333333</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>43.11</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3111,14 +3185,20 @@
         <v>43.20783333333333</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>43.11</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3153,7 +3233,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3188,7 +3272,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3223,7 +3311,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3258,7 +3350,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3389,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3328,7 +3428,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3363,7 +3467,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3398,7 +3506,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3433,7 +3545,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3468,7 +3584,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3503,7 +3623,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3538,7 +3662,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3573,7 +3701,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3608,7 +3740,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3643,7 +3779,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3678,7 +3818,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3713,7 +3857,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3748,7 +3896,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3783,7 +3935,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3818,7 +3974,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3853,7 +4013,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3888,7 +4052,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3923,7 +4091,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3958,7 +4130,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3993,7 +4169,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4028,7 +4208,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4063,7 +4247,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4098,7 +4286,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4133,7 +4325,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4168,7 +4364,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4203,7 +4403,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4238,7 +4442,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4273,7 +4481,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4308,7 +4520,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4343,7 +4559,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4378,7 +4598,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4413,7 +4637,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4676,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4483,7 +4715,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4518,7 +4754,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4553,7 +4793,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4588,7 +4832,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4623,7 +4871,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4658,7 +4910,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4693,7 +4949,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4728,7 +4988,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4763,7 +5027,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4798,7 +5066,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4833,7 +5105,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4868,7 +5144,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4903,7 +5183,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4938,7 +5222,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4973,7 +5261,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5008,7 +5300,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5043,7 +5339,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5078,7 +5378,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5113,7 +5417,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5148,7 +5456,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5183,7 +5495,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5218,7 +5534,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5253,7 +5573,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5288,7 +5612,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5323,7 +5651,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5358,7 +5690,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5393,7 +5729,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5428,7 +5768,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5463,7 +5807,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5498,7 +5846,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5533,7 +5885,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5568,7 +5924,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +5963,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5638,7 +6002,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5673,7 +6041,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5708,7 +6080,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5743,7 +6119,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5778,7 +6158,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5813,7 +6197,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5848,7 +6236,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5883,7 +6275,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5918,7 +6314,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5953,7 +6353,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5988,7 +6392,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6023,7 +6431,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6058,7 +6470,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6093,7 +6509,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6128,7 +6548,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6163,7 +6587,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6198,7 +6626,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6233,7 +6665,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6268,7 +6704,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6303,7 +6743,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6338,7 +6782,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6373,7 +6821,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6408,7 +6860,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6443,7 +6899,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6478,7 +6938,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6513,7 +6977,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6548,7 +7016,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6583,7 +7055,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6618,7 +7094,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6653,7 +7133,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6688,7 +7172,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6723,7 +7211,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +7250,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6793,7 +7289,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6828,7 +7328,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6863,7 +7367,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6898,7 +7406,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6933,7 +7445,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6968,7 +7484,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7003,7 +7523,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7038,7 +7562,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7073,7 +7601,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7108,7 +7640,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7143,7 +7679,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7178,7 +7718,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7213,7 +7757,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7248,7 +7796,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7283,7 +7835,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7318,7 +7874,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7353,7 +7913,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7388,7 +7952,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7423,7 +7991,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7458,7 +8030,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7493,7 +8069,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7528,7 +8108,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7563,7 +8147,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7598,7 +8186,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7633,7 +8225,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7668,7 +8264,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7703,7 +8303,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7738,7 +8342,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7773,7 +8381,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7808,7 +8420,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7843,7 +8459,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -7878,7 +8498,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8537,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -7948,7 +8576,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -7983,7 +8615,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8018,7 +8654,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8053,7 +8693,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8088,7 +8732,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8123,7 +8771,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8158,7 +8810,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8193,7 +8849,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8228,7 +8888,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8263,7 +8927,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8298,7 +8966,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8333,7 +9005,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8368,7 +9044,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8403,7 +9083,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8438,7 +9122,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8473,7 +9161,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8508,7 +9200,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8543,7 +9239,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8578,7 +9278,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8613,7 +9317,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8648,7 +9356,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8683,7 +9395,11 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8718,7 +9434,11 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -8753,7 +9473,11 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8788,7 +9512,11 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -8823,7 +9551,11 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -8858,7 +9590,11 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -8893,7 +9629,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -8928,7 +9668,11 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -8963,7 +9707,11 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -8998,7 +9746,11 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9033,7 +9785,11 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9068,7 +9824,11 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9103,7 +9863,11 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9138,7 +9902,11 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9173,7 +9941,11 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9208,7 +9980,11 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9243,7 +10019,11 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9278,7 +10058,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9313,7 +10097,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9348,7 +10136,11 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9383,7 +10175,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9418,7 +10214,11 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9453,7 +10253,11 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9488,7 +10292,11 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9523,7 +10331,11 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9558,7 +10370,11 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9593,7 +10409,11 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9628,7 +10448,11 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9663,7 +10487,11 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9698,7 +10526,11 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -9733,7 +10565,11 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -9768,7 +10604,11 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -9803,7 +10643,11 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -9838,7 +10682,11 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -9873,7 +10721,11 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -9908,7 +10760,11 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -9943,7 +10799,11 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -9978,7 +10838,11 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10013,7 +10877,11 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10048,7 +10916,11 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10083,7 +10955,11 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10118,7 +10994,11 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10153,7 +11033,11 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10188,7 +11072,11 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10223,7 +11111,11 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10258,7 +11150,11 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10293,7 +11189,11 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10328,7 +11228,11 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10363,7 +11267,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10398,7 +11306,11 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10433,7 +11345,11 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10468,7 +11384,11 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10503,7 +11423,11 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10538,7 +11462,11 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10573,7 +11501,11 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10608,7 +11540,11 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10643,7 +11579,11 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10678,7 +11618,11 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -10713,7 +11657,11 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -10748,7 +11696,11 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -10783,7 +11735,11 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -10818,7 +11774,11 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -10853,7 +11813,11 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -10888,7 +11852,11 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -10923,7 +11891,11 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -10958,7 +11930,11 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -10993,7 +11969,11 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11028,7 +12008,11 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11063,7 +12047,11 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11098,7 +12086,11 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11133,7 +12125,11 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11168,7 +12164,11 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11203,7 +12203,11 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11238,7 +12242,11 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11273,7 +12281,11 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11308,7 +12320,11 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11343,7 +12359,11 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11378,7 +12398,11 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11413,7 +12437,11 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11448,7 +12476,11 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11483,7 +12515,11 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -11518,7 +12554,11 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -11553,7 +12593,11 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -11588,7 +12632,11 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -11623,7 +12671,11 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -11658,7 +12710,11 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -11693,7 +12749,11 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -11728,7 +12788,11 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -11763,7 +12827,11 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -11798,7 +12866,11 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -11833,7 +12905,11 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -11868,7 +12944,11 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -11903,7 +12983,11 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -11938,7 +13022,11 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -11973,7 +13061,11 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12008,7 +13100,11 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12043,7 +13139,11 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12071,18 +13171,16 @@
         <v>43.11399999999997</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="J334" t="n">
-        <v>43.01</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
       <c r="L334" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M334" t="n">
@@ -12112,14 +13210,12 @@
         <v>43.11066666666664</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
       </c>
-      <c r="J335" t="n">
-        <v>43.01</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr">
         <is>
@@ -12153,14 +13249,12 @@
         <v>43.10749999999997</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
-      <c r="J336" t="n">
-        <v>43.02</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
       <c r="L336" t="inlineStr">
         <is>
@@ -12194,14 +13288,12 @@
         <v>43.10433333333331</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
-      <c r="J337" t="n">
-        <v>43</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
       <c r="L337" t="inlineStr">
         <is>
@@ -12235,14 +13327,12 @@
         <v>43.10116666666664</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
       </c>
-      <c r="J338" t="n">
-        <v>42.99</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
       <c r="L338" t="inlineStr">
         <is>
@@ -12276,14 +13366,12 @@
         <v>43.09799999999998</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
       </c>
-      <c r="J339" t="n">
-        <v>43.01</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
       <c r="L339" t="inlineStr">
         <is>
@@ -12317,14 +13405,12 @@
         <v>43.09466666666665</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
       </c>
-      <c r="J340" t="n">
-        <v>43</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr">
         <is>
@@ -12358,14 +13444,12 @@
         <v>43.09333333333332</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
       </c>
-      <c r="J341" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr">
         <is>
@@ -12399,14 +13483,12 @@
         <v>43.09183333333332</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
       </c>
-      <c r="J342" t="n">
-        <v>42.9</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr">
         <is>
@@ -12557,14 +13639,12 @@
         <v>43.07399999999999</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="n">
-        <v>42.81</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr">
         <is>
@@ -12598,14 +13678,12 @@
         <v>43.07066666666666</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="n">
-        <v>42.81</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr">
         <is>
@@ -12639,14 +13717,12 @@
         <v>43.06416666666667</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="n">
-        <v>42.81</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
       <c r="L348" t="inlineStr">
         <is>
@@ -12680,14 +13756,12 @@
         <v>43.05733333333333</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="n">
-        <v>42.8</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
       <c r="L349" t="inlineStr">
         <is>
@@ -12721,14 +13795,12 @@
         <v>43.05083333333334</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
-      <c r="J350" t="n">
-        <v>42.8</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
       <c r="L350" t="inlineStr">
         <is>
@@ -12762,14 +13834,12 @@
         <v>43.04583333333334</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
       </c>
-      <c r="J351" t="n">
-        <v>42.8</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
       <c r="L351" t="inlineStr">
         <is>
@@ -12803,14 +13873,12 @@
         <v>43.03933333333335</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
       </c>
-      <c r="J352" t="n">
-        <v>43.04</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
       <c r="L352" t="inlineStr">
         <is>
@@ -12844,14 +13912,12 @@
         <v>43.03633333333335</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="n">
-        <v>43.01</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
       <c r="L353" t="inlineStr">
         <is>
@@ -12885,14 +13951,12 @@
         <v>43.03783333333335</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
       </c>
-      <c r="J354" t="n">
-        <v>42.81</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr">
         <is>
@@ -12926,14 +13990,12 @@
         <v>43.03583333333335</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
       </c>
-      <c r="J355" t="n">
-        <v>43.11</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
       <c r="L355" t="inlineStr">
         <is>
@@ -12967,14 +14029,12 @@
         <v>43.03416666666669</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
       </c>
-      <c r="J356" t="n">
-        <v>43.08</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
       <c r="L356" t="inlineStr">
         <is>
@@ -13008,14 +14068,12 @@
         <v>43.02833333333335</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="n">
-        <v>42.9</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
       <c r="L357" t="inlineStr">
         <is>
@@ -13049,14 +14107,12 @@
         <v>43.02183333333335</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
       </c>
-      <c r="J358" t="n">
-        <v>42.85</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
       <c r="L358" t="inlineStr">
         <is>
@@ -13090,14 +14146,12 @@
         <v>43.01616666666669</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
-      <c r="J359" t="n">
-        <v>42.81</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
       <c r="L359" t="inlineStr">
         <is>
@@ -13131,14 +14185,12 @@
         <v>43.01033333333336</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="n">
-        <v>42.81</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
       <c r="L360" t="inlineStr">
         <is>
@@ -13172,14 +14224,12 @@
         <v>43.0036666666667</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
       </c>
-      <c r="J361" t="n">
-        <v>42.86</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
       <c r="L361" t="inlineStr">
         <is>
@@ -13213,14 +14263,12 @@
         <v>42.99733333333336</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
       </c>
-      <c r="J362" t="n">
-        <v>42.81</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
       <c r="L362" t="inlineStr">
         <is>
@@ -13254,14 +14302,12 @@
         <v>42.99100000000002</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
       </c>
-      <c r="J363" t="n">
-        <v>42.86</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
       <c r="L363" t="inlineStr">
         <is>
@@ -13295,14 +14341,12 @@
         <v>42.98550000000002</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
       </c>
-      <c r="J364" t="n">
-        <v>42.81</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
       <c r="L364" t="inlineStr">
         <is>
@@ -13336,14 +14380,12 @@
         <v>42.98400000000002</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
       </c>
-      <c r="J365" t="n">
-        <v>42.81</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
       <c r="L365" t="inlineStr">
         <is>
@@ -13377,14 +14419,12 @@
         <v>42.98316666666668</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
       </c>
-      <c r="J366" t="n">
-        <v>42.86</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
       <c r="L366" t="inlineStr">
         <is>
@@ -13418,14 +14458,12 @@
         <v>42.98300000000003</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
       </c>
-      <c r="J367" t="n">
-        <v>42.81</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
       <c r="L367" t="inlineStr">
         <is>
@@ -13459,14 +14497,12 @@
         <v>42.98133333333336</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
       </c>
-      <c r="J368" t="n">
-        <v>42.81</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
       <c r="L368" t="inlineStr">
         <is>
@@ -13500,14 +14536,12 @@
         <v>42.97650000000002</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
       </c>
-      <c r="J369" t="n">
-        <v>42.81</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
       <c r="L369" t="inlineStr">
         <is>
@@ -13541,14 +14575,12 @@
         <v>42.9796666666667</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="J370" t="n">
-        <v>43.2</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
       <c r="L370" t="inlineStr">
         <is>
@@ -13582,14 +14614,12 @@
         <v>42.9796666666667</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
       </c>
-      <c r="J371" t="n">
-        <v>43.29</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
       <c r="L371" t="inlineStr">
         <is>
@@ -13623,14 +14653,12 @@
         <v>42.97933333333336</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
       </c>
-      <c r="J372" t="n">
-        <v>43.29</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
       <c r="L372" t="inlineStr">
         <is>
@@ -13664,14 +14692,12 @@
         <v>42.97600000000003</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
       </c>
-      <c r="J373" t="n">
-        <v>42.9</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
       <c r="L373" t="inlineStr">
         <is>
@@ -13744,14 +14770,12 @@
         <v>42.96933333333336</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
       </c>
-      <c r="J375" t="n">
-        <v>42.81</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
       <c r="L375" t="inlineStr">
         <is>
@@ -13785,14 +14809,12 @@
         <v>42.96450000000003</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
       </c>
-      <c r="J376" t="n">
-        <v>43.02</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
       <c r="L376" t="inlineStr">
         <is>
@@ -13826,14 +14848,12 @@
         <v>42.96283333333336</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
       </c>
-      <c r="J377" t="n">
-        <v>42.81</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
       <c r="L377" t="inlineStr">
         <is>
@@ -13867,14 +14887,12 @@
         <v>42.96116666666669</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
       </c>
-      <c r="J378" t="n">
-        <v>43</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
       <c r="L378" t="inlineStr">
         <is>
@@ -13908,14 +14926,12 @@
         <v>42.95800000000002</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
       </c>
-      <c r="J379" t="n">
-        <v>42.85</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
       <c r="L379" t="inlineStr">
         <is>
@@ -13949,14 +14965,12 @@
         <v>42.95750000000002</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
       </c>
-      <c r="J380" t="n">
-        <v>43.03</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
       <c r="L380" t="inlineStr">
         <is>
@@ -13990,14 +15004,12 @@
         <v>42.95700000000002</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
       </c>
-      <c r="J381" t="n">
-        <v>43.03</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
       <c r="L381" t="inlineStr">
         <is>
@@ -14031,14 +15043,12 @@
         <v>42.95616666666669</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
       </c>
-      <c r="J382" t="n">
-        <v>43.01</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
       <c r="L382" t="inlineStr">
         <is>
@@ -14072,14 +15082,12 @@
         <v>42.95750000000002</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
       </c>
-      <c r="J383" t="n">
-        <v>43.07</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
       <c r="L383" t="inlineStr">
         <is>
@@ -14113,14 +15121,12 @@
         <v>42.95900000000003</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
       </c>
-      <c r="J384" t="n">
-        <v>43.08</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
       <c r="L384" t="inlineStr">
         <is>
@@ -14154,14 +15160,12 @@
         <v>42.96033333333337</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
       </c>
-      <c r="J385" t="n">
-        <v>43.08</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
       <c r="L385" t="inlineStr">
         <is>
@@ -14195,14 +15199,12 @@
         <v>42.96133333333337</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
       </c>
-      <c r="J386" t="n">
-        <v>43.07</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
       <c r="L386" t="inlineStr">
         <is>
@@ -14236,14 +15238,12 @@
         <v>42.96250000000004</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
       </c>
-      <c r="J387" t="n">
-        <v>43.07</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
       <c r="L387" t="inlineStr">
         <is>
@@ -14277,14 +15277,12 @@
         <v>42.9636666666667</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
       </c>
-      <c r="J388" t="n">
-        <v>43.06</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
       <c r="L388" t="inlineStr">
         <is>
@@ -14318,14 +15316,12 @@
         <v>42.96450000000004</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
       </c>
-      <c r="J389" t="n">
-        <v>43.06</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
       <c r="L389" t="inlineStr">
         <is>
@@ -14359,14 +15355,12 @@
         <v>42.9651666666667</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
       </c>
-      <c r="J390" t="n">
-        <v>43.06</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
       <c r="L390" t="inlineStr">
         <is>
@@ -14400,14 +15394,12 @@
         <v>42.96600000000004</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
       </c>
-      <c r="J391" t="n">
-        <v>43.06</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
       <c r="L391" t="inlineStr">
         <is>
@@ -14480,14 +15472,12 @@
         <v>42.96833333333338</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
       </c>
-      <c r="J393" t="n">
-        <v>43.07</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
       <c r="L393" t="inlineStr">
         <is>
@@ -14833,14 +15823,12 @@
         <v>42.97216666666671</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
       </c>
-      <c r="J402" t="n">
-        <v>43.03</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
       <c r="L402" t="inlineStr">
         <is>
@@ -14874,14 +15862,12 @@
         <v>42.97416666666671</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
       </c>
-      <c r="J403" t="n">
-        <v>43.02</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
       <c r="L403" t="inlineStr">
         <is>
@@ -14915,14 +15901,12 @@
         <v>42.97800000000004</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
       </c>
-      <c r="J404" t="n">
-        <v>43.01</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
       <c r="L404" t="inlineStr">
         <is>
@@ -14956,14 +15940,12 @@
         <v>42.97866666666672</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
       </c>
-      <c r="J405" t="n">
-        <v>43.03</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
       <c r="L405" t="inlineStr">
         <is>
@@ -14997,14 +15979,12 @@
         <v>42.97900000000005</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
       </c>
-      <c r="J406" t="n">
-        <v>43.03</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
       <c r="L406" t="inlineStr">
         <is>
@@ -15038,14 +16018,12 @@
         <v>42.97916666666672</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
       </c>
-      <c r="J407" t="n">
-        <v>43.01</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
       <c r="L407" t="inlineStr">
         <is>
@@ -15079,14 +16057,12 @@
         <v>42.98316666666672</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
       </c>
-      <c r="J408" t="n">
-        <v>43.01</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
       <c r="L408" t="inlineStr">
         <is>
@@ -15120,14 +16096,12 @@
         <v>42.98700000000005</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
       </c>
-      <c r="J409" t="n">
-        <v>43.03</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
       <c r="L409" t="inlineStr">
         <is>
@@ -15161,14 +16135,12 @@
         <v>42.99100000000005</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
       </c>
-      <c r="J410" t="n">
-        <v>43.04</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
       <c r="L410" t="inlineStr">
         <is>
@@ -15202,14 +16174,12 @@
         <v>42.99300000000004</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
       </c>
-      <c r="J411" t="n">
-        <v>43.03</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
       <c r="L411" t="inlineStr">
         <is>
@@ -15243,14 +16213,12 @@
         <v>42.99683333333338</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
       </c>
-      <c r="J412" t="n">
-        <v>43.03</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
       <c r="L412" t="inlineStr">
         <is>
@@ -15284,14 +16252,12 @@
         <v>42.99683333333338</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
       </c>
-      <c r="J413" t="n">
-        <v>43.03</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
       <c r="L413" t="inlineStr">
         <is>
@@ -15325,14 +16291,12 @@
         <v>42.99250000000005</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
       </c>
-      <c r="J414" t="n">
-        <v>43.04</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
       <c r="L414" t="inlineStr">
         <is>
@@ -15366,14 +16330,12 @@
         <v>42.99133333333339</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
       </c>
-      <c r="J415" t="n">
-        <v>43.04</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
       <c r="L415" t="inlineStr">
         <is>
@@ -15407,14 +16369,12 @@
         <v>42.99000000000005</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
       </c>
-      <c r="J416" t="n">
-        <v>43.01</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
       <c r="L416" t="inlineStr">
         <is>
@@ -15448,14 +16408,12 @@
         <v>42.99283333333339</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
       </c>
-      <c r="J417" t="n">
-        <v>43.02</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
       <c r="L417" t="inlineStr">
         <is>
@@ -15489,14 +16447,12 @@
         <v>42.99650000000006</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
       </c>
-      <c r="J418" t="n">
-        <v>43.03</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
       <c r="L418" t="inlineStr">
         <is>
@@ -15530,14 +16486,12 @@
         <v>42.99900000000006</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
       </c>
-      <c r="J419" t="n">
-        <v>43.03</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
       <c r="L419" t="inlineStr">
         <is>
@@ -15571,14 +16525,12 @@
         <v>43.00200000000007</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
       </c>
-      <c r="J420" t="n">
-        <v>43.03</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
       <c r="L420" t="inlineStr">
         <is>
@@ -15612,14 +16564,12 @@
         <v>43.00550000000007</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
       </c>
-      <c r="J421" t="n">
-        <v>43.03</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
       <c r="L421" t="inlineStr">
         <is>
@@ -15653,14 +16603,12 @@
         <v>43.00916666666674</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
       </c>
-      <c r="J422" t="n">
-        <v>43.03</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
       <c r="L422" t="inlineStr">
         <is>
@@ -15694,14 +16642,12 @@
         <v>43.01283333333341</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
       </c>
-      <c r="J423" t="n">
-        <v>43.04</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
       <c r="L423" t="inlineStr">
         <is>
@@ -15735,14 +16681,12 @@
         <v>43.01566666666675</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
       </c>
-      <c r="J424" t="n">
-        <v>43.03</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
       <c r="L424" t="inlineStr">
         <is>
@@ -15776,14 +16720,12 @@
         <v>43.01933333333341</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
       </c>
-      <c r="J425" t="n">
-        <v>43.02</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
       <c r="L425" t="inlineStr">
         <is>
@@ -15817,14 +16759,12 @@
         <v>43.02216666666675</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
       </c>
-      <c r="J426" t="n">
-        <v>43.02</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
       <c r="L426" t="inlineStr">
         <is>
@@ -15858,14 +16798,12 @@
         <v>43.02400000000009</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
       </c>
-      <c r="J427" t="n">
-        <v>43.02</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
       <c r="L427" t="inlineStr">
         <is>
@@ -15899,14 +16837,12 @@
         <v>43.02400000000009</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
       </c>
-      <c r="J428" t="n">
-        <v>43.01</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
       <c r="L428" t="inlineStr">
         <is>
@@ -15940,14 +16876,12 @@
         <v>43.02883333333342</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
       </c>
-      <c r="J429" t="n">
-        <v>43.1</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
       <c r="L429" t="inlineStr">
         <is>
@@ -15981,14 +16915,12 @@
         <v>43.02566666666675</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
       </c>
-      <c r="J430" t="n">
-        <v>43.1</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
       <c r="L430" t="inlineStr">
         <is>
@@ -16022,14 +16954,12 @@
         <v>43.02583333333341</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
       </c>
-      <c r="J431" t="n">
-        <v>43.09</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
       <c r="L431" t="inlineStr">
         <is>
@@ -18952,16 +19882,18 @@
         <v>0</v>
       </c>
       <c r="I506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr"/>
       <c r="L506" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M506" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M506" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
@@ -18993,10 +19925,12 @@
       </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
-      <c r="M507" t="n">
-        <v>1</v>
-      </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
@@ -20494,7 +21428,7 @@
         <v>0</v>
       </c>
       <c r="I550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
@@ -20529,7 +21463,7 @@
         <v>0</v>
       </c>
       <c r="I551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
@@ -20599,7 +21533,7 @@
         <v>0</v>
       </c>
       <c r="I553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>

--- a/BackTest/2020-01-11 BackTest IPX.xlsx
+++ b/BackTest/2020-01-11 BackTest IPX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -13948,11 +13948,17 @@
         <v>16558.33417829007</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>42.9</v>
+      </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -13985,7 +13991,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14014,11 +14024,17 @@
         <v>21343.97387829007</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>43.01</v>
+      </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14051,7 +14067,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14084,7 +14104,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14117,7 +14141,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14150,7 +14178,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14183,7 +14215,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14212,7 +14248,7 @@
         <v>22516.78097829007</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I419" t="n">
         <v>42.86</v>
@@ -14220,7 +14256,7 @@
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L419" t="n">
@@ -14251,7 +14287,7 @@
         <v>20210.15437829007</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I420" t="n">
         <v>42.85</v>
@@ -14290,9 +14326,11 @@
         <v>20210.15437829007</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>42.81</v>
+      </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
@@ -14327,7 +14365,7 @@
         <v>20210.15437829007</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I422" t="n">
         <v>42.81</v>
@@ -14366,7 +14404,7 @@
         <v>21890.28457829007</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I423" t="n">
         <v>42.81</v>
@@ -14405,7 +14443,7 @@
         <v>20864.72207829007</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I424" t="n">
         <v>42.86</v>
@@ -14444,7 +14482,7 @@
         <v>21515.68027829007</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I425" t="n">
         <v>42.81</v>
@@ -14483,7 +14521,7 @@
         <v>23432.60837829007</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I426" t="n">
         <v>42.85</v>
@@ -14522,7 +14560,7 @@
         <v>24116.50417829007</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I427" t="n">
         <v>42.9</v>
@@ -14561,7 +14599,7 @@
         <v>21570.51517829007</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I428" t="n">
         <v>43.01</v>
@@ -14600,7 +14638,7 @@
         <v>23602.69827829007</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I429" t="n">
         <v>42.81</v>
@@ -14639,7 +14677,7 @@
         <v>22624.02587829007</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I430" t="n">
         <v>43.29</v>
@@ -14678,9 +14716,11 @@
         <v>22624.02587829007</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>43.09</v>
+      </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
@@ -14715,9 +14755,11 @@
         <v>21847.21637829007</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>43.09</v>
+      </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
@@ -14752,9 +14794,11 @@
         <v>20426.64787829007</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>42.9</v>
+      </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
@@ -14789,9 +14833,11 @@
         <v>22130.06317829007</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>42.81</v>
+      </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
@@ -14826,9 +14872,11 @@
         <v>20835.43977829007</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>43</v>
+      </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
@@ -14863,9 +14911,11 @@
         <v>21820.22817829007</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>42.81</v>
+      </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
@@ -14900,9 +14950,11 @@
         <v>20182.03847829007</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>42.99</v>
+      </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
@@ -14937,9 +14989,11 @@
         <v>20182.03847829007</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>42.85</v>
+      </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
@@ -14974,7 +15028,7 @@
         <v>21374.28617829007</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I439" t="n">
         <v>42.85</v>
@@ -15013,7 +15067,7 @@
         <v>20190.41077829007</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I440" t="n">
         <v>43.02</v>
@@ -15052,7 +15106,7 @@
         <v>25008.24997829007</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I441" t="n">
         <v>43.01</v>
@@ -15091,7 +15145,7 @@
         <v>25893.11787829007</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I442" t="n">
         <v>43.06</v>
@@ -15130,7 +15184,7 @@
         <v>27647.92997829007</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I443" t="n">
         <v>43.07</v>
@@ -15169,7 +15223,7 @@
         <v>25548.26377829007</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I444" t="n">
         <v>43.09</v>
@@ -15208,7 +15262,7 @@
         <v>25548.26377829007</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I445" t="n">
         <v>43.07</v>
@@ -15247,11 +15301,9 @@
         <v>24014.02177829007</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
-      </c>
-      <c r="I446" t="n">
-        <v>43.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
@@ -15619,11 +15671,9 @@
         <v>23921.84627829008</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
-      </c>
-      <c r="I456" t="n">
-        <v>43.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
@@ -15658,11 +15708,9 @@
         <v>24795.41837829008</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
-      </c>
-      <c r="I457" t="n">
-        <v>43.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
@@ -16067,11 +16115,9 @@
         <v>30217.32607829008</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
-      </c>
-      <c r="I468" t="n">
-        <v>43.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
@@ -16106,11 +16152,9 @@
         <v>31108.70527829008</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
-      </c>
-      <c r="I469" t="n">
-        <v>43.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
@@ -16182,9 +16226,11 @@
         <v>30556.75467829008</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>43.02</v>
+      </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
@@ -16219,9 +16265,11 @@
         <v>28815.48867829008</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>43.04</v>
+      </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
@@ -16256,9 +16304,11 @@
         <v>30036.89877829008</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>43.01</v>
+      </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
@@ -16293,9 +16343,11 @@
         <v>28409.50327829008</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>43.03</v>
+      </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
@@ -16330,9 +16382,11 @@
         <v>29933.89597829008</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>43.01</v>
+      </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
@@ -16737,9 +16791,11 @@
         <v>27561.89527829007</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>43.02</v>
+      </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
@@ -19771,7 +19827,7 @@
         <v>122580.1315782901</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19882,7 +19938,7 @@
         <v>109845.3693782901</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19919,7 +19975,7 @@
         <v>109845.3693782901</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20622,18 +20678,16 @@
         <v>110361.7947782901</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L591" t="n">
-        <v>1</v>
-      </c>
+      <c r="L591" t="inlineStr"/>
       <c r="M591" t="inlineStr"/>
     </row>
     <row r="592">
@@ -20663,11 +20717,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20700,11 +20750,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20737,11 +20783,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20774,11 +20816,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20811,11 +20849,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20848,11 +20882,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20885,11 +20915,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20922,11 +20948,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20959,11 +20981,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20996,11 +21014,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21033,11 +21047,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21070,11 +21080,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21107,11 +21113,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21144,11 +21146,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21181,11 +21179,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21218,11 +21212,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21255,11 +21245,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21292,11 +21278,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21325,16 +21307,14 @@
         <v>131036.4840856451</v>
       </c>
       <c r="H610" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
+      <c r="L610" t="n">
+        <v>1</v>
+      </c>
       <c r="M610" t="inlineStr"/>
     </row>
     <row r="611">
@@ -21360,7 +21340,7 @@
         <v>131036.4840856451</v>
       </c>
       <c r="H611" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21393,7 +21373,7 @@
         <v>135560.7835856451</v>
       </c>
       <c r="H612" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21558,7 +21538,7 @@
         <v>132783.623485645</v>
       </c>
       <c r="H617" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21591,7 +21571,7 @@
         <v>132783.623485645</v>
       </c>
       <c r="H618" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -21624,7 +21604,7 @@
         <v>131560.765985645</v>
       </c>
       <c r="H619" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21657,7 +21637,7 @@
         <v>133079.549385645</v>
       </c>
       <c r="H620" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21789,7 +21769,7 @@
         <v>130668.083885645</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21822,7 +21802,7 @@
         <v>130668.083885645</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21855,7 +21835,7 @@
         <v>132176.362985645</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21888,7 +21868,7 @@
         <v>130976.977285645</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21921,7 +21901,7 @@
         <v>130651.498185645</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21954,7 +21934,7 @@
         <v>130651.498185645</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21987,7 +21967,7 @@
         <v>131880.622785645</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22020,7 +22000,7 @@
         <v>131543.143685645</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22053,7 +22033,7 @@
         <v>133928.246485645</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22086,7 +22066,7 @@
         <v>131742.277585645</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22152,7 +22132,7 @@
         <v>131213.999385645</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22185,7 +22165,7 @@
         <v>131213.999385645</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22218,7 +22198,7 @@
         <v>130563.041185645</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22251,7 +22231,7 @@
         <v>130563.041185645</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22284,7 +22264,7 @@
         <v>6949.62118564501</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22317,7 +22297,7 @@
         <v>7275.10028564501</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22548,7 +22528,7 @@
         <v>8068.115085645012</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -22680,7 +22660,7 @@
         <v>-8938.015914354988</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22713,7 +22693,7 @@
         <v>-8287.057714354989</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22746,7 +22726,7 @@
         <v>-9155.986814354988</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22779,7 +22759,7 @@
         <v>-8275.020114354989</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22812,7 +22792,7 @@
         <v>-8275.020114354989</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22845,7 +22825,7 @@
         <v>-9810.61671435499</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22878,7 +22858,7 @@
         <v>-9485.13761435499</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22911,7 +22891,7 @@
         <v>-9485.13761435499</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22944,7 +22924,7 @@
         <v>-9485.13761435499</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22977,7 +22957,7 @@
         <v>-9810.61671435499</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23010,7 +22990,7 @@
         <v>-9810.61671435499</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23043,7 +23023,7 @@
         <v>-9810.61671435499</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23076,7 +23056,7 @@
         <v>-9485.13761435499</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -27234,7 +27214,7 @@
         <v>12271.19638564499</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -27267,7 +27247,7 @@
         <v>11069.50838564499</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -27300,7 +27280,7 @@
         <v>11069.50838564499</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -27432,7 +27412,7 @@
         <v>-13988.64421435501</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -27564,7 +27544,7 @@
         <v>-11498.71601435501</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -27597,7 +27577,7 @@
         <v>-11824.19511435501</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -27630,7 +27610,7 @@
         <v>-11824.19511435501</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -27663,7 +27643,7 @@
         <v>-13836.59781435501</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -27696,7 +27676,7 @@
         <v>-12325.70571435501</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -27729,7 +27709,7 @@
         <v>-12325.70571435501</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -27762,7 +27742,7 @@
         <v>-12325.70571435501</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -27795,7 +27775,7 @@
         <v>-11443.17481435501</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27828,7 +27808,7 @@
         <v>-10466.73751435501</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27861,7 +27841,7 @@
         <v>-3381.871014355012</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27894,7 +27874,7 @@
         <v>-5009.266514355013</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27927,7 +27907,7 @@
         <v>-5009.266514355013</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27993,7 +27973,7 @@
         <v>-12223.04681435501</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -28026,7 +28006,7 @@
         <v>-10128.20831435501</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -28059,7 +28039,7 @@
         <v>-11104.64561435501</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -28092,7 +28072,7 @@
         <v>-11104.64561435501</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -28125,7 +28105,7 @@
         <v>-7728.600214355013</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -28158,7 +28138,7 @@
         <v>-48799.93731435501</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -28224,7 +28204,7 @@
         <v>-46992.19201435501</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -28257,7 +28237,7 @@
         <v>-47317.67111435501</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -28290,7 +28270,7 @@
         <v>-47317.67111435501</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -28323,7 +28303,7 @@
         <v>-49070.316014355</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -40148,6 +40128,6 @@
       <c r="M1180" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest IPX.xlsx
+++ b/BackTest/2020-01-11 BackTest IPX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3421,7 +3421,7 @@
         <v>154659.1739</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -13948,17 +13948,11 @@
         <v>16558.33417829007</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>42.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -13991,11 +13985,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14024,17 +14014,11 @@
         <v>21343.97387829007</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>43.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14067,11 +14051,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14104,11 +14084,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14141,11 +14117,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14178,11 +14150,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14215,11 +14183,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14248,17 +14212,11 @@
         <v>22516.78097829007</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>42.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14287,17 +14245,11 @@
         <v>20210.15437829007</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>42.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14326,17 +14278,11 @@
         <v>20210.15437829007</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>42.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14365,17 +14311,11 @@
         <v>20210.15437829007</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>42.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14404,17 +14344,11 @@
         <v>21890.28457829007</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>42.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14443,17 +14377,11 @@
         <v>20864.72207829007</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>42.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14482,17 +14410,11 @@
         <v>21515.68027829007</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>42.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14521,17 +14443,11 @@
         <v>23432.60837829007</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>42.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14560,17 +14476,11 @@
         <v>24116.50417829007</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>42.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14599,17 +14509,11 @@
         <v>21570.51517829007</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>43.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14638,17 +14542,11 @@
         <v>23602.69827829007</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>42.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14677,17 +14575,11 @@
         <v>22624.02587829007</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>43.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14716,17 +14608,11 @@
         <v>22624.02587829007</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>43.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14755,17 +14641,11 @@
         <v>21847.21637829007</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>43.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14794,17 +14674,11 @@
         <v>20426.64787829007</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>42.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14833,17 +14707,11 @@
         <v>22130.06317829007</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>42.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14872,17 +14740,11 @@
         <v>20835.43977829007</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14911,17 +14773,11 @@
         <v>21820.22817829007</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>42.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14950,17 +14806,11 @@
         <v>20182.03847829007</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>42.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14989,17 +14839,11 @@
         <v>20182.03847829007</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>42.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15028,17 +14872,11 @@
         <v>21374.28617829007</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>42.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15067,17 +14905,11 @@
         <v>20190.41077829007</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>43.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15106,17 +14938,11 @@
         <v>25008.24997829007</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>43.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15145,17 +14971,11 @@
         <v>25893.11787829007</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>43.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15184,17 +15004,11 @@
         <v>27647.92997829007</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>43.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15223,17 +15037,11 @@
         <v>25548.26377829007</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
-      </c>
-      <c r="I444" t="n">
-        <v>43.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15262,17 +15070,11 @@
         <v>25548.26377829007</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
-      </c>
-      <c r="I445" t="n">
-        <v>43.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15305,11 +15107,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15342,11 +15140,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15379,11 +15173,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15416,11 +15206,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15453,11 +15239,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15490,11 +15272,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15527,11 +15305,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15564,11 +15338,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15601,11 +15371,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15638,11 +15404,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15675,11 +15437,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15712,11 +15470,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15749,11 +15503,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15786,11 +15536,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15823,11 +15569,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15860,11 +15602,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15897,11 +15635,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15934,11 +15668,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15971,11 +15701,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16008,11 +15734,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16045,11 +15767,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16082,11 +15800,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16119,11 +15833,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16156,11 +15866,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16193,11 +15899,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16226,17 +15928,11 @@
         <v>30556.75467829008</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
-      </c>
-      <c r="I471" t="n">
-        <v>43.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16265,17 +15961,11 @@
         <v>28815.48867829008</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
-      </c>
-      <c r="I472" t="n">
-        <v>43.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16304,17 +15994,11 @@
         <v>30036.89877829008</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
-      </c>
-      <c r="I473" t="n">
-        <v>43.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16343,17 +16027,11 @@
         <v>28409.50327829008</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>43.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16382,17 +16060,11 @@
         <v>29933.89597829008</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
-      </c>
-      <c r="I475" t="n">
-        <v>43.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16425,11 +16097,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16462,11 +16130,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16499,11 +16163,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16536,11 +16196,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16573,11 +16229,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16610,11 +16262,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16647,11 +16295,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16684,11 +16328,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16721,11 +16361,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16758,11 +16394,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16791,17 +16423,11 @@
         <v>27561.89527829007</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
-      </c>
-      <c r="I486" t="n">
-        <v>43.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16834,11 +16460,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16871,11 +16493,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16908,11 +16526,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16945,11 +16559,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16982,11 +16592,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17019,11 +16625,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17056,11 +16658,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17093,11 +16691,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17130,11 +16724,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17167,11 +16757,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17204,11 +16790,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17241,11 +16823,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17278,11 +16856,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17315,11 +16889,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17352,11 +16922,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17389,11 +16955,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17426,11 +16988,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17463,11 +17021,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17500,11 +17054,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17537,11 +17087,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17574,11 +17120,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17611,11 +17153,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17648,11 +17186,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17685,11 +17219,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17722,11 +17252,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17759,11 +17285,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17796,11 +17318,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17833,11 +17351,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17870,11 +17384,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17907,11 +17417,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17944,11 +17450,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17981,11 +17483,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18018,11 +17516,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18055,11 +17549,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18092,11 +17582,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18129,11 +17615,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18166,11 +17648,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18203,11 +17681,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18240,11 +17714,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18277,11 +17747,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18314,11 +17780,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18351,11 +17813,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18388,11 +17846,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18425,11 +17879,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18462,11 +17912,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18499,11 +17945,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18536,11 +17978,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18573,11 +18011,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18610,11 +18044,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18647,11 +18077,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18684,11 +18110,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18721,11 +18143,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18758,11 +18176,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18795,11 +18209,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18832,11 +18242,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18869,11 +18275,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18902,15 +18304,11 @@
         <v>53825.71157829007</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18939,15 +18337,11 @@
         <v>54488.66977829007</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18976,15 +18370,11 @@
         <v>53596.91577829007</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19013,15 +18403,11 @@
         <v>53665.09817829007</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19050,15 +18436,11 @@
         <v>53665.09817829007</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19087,15 +18469,11 @@
         <v>53681.79897829007</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19124,15 +18502,11 @@
         <v>53681.79897829007</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19161,15 +18535,11 @@
         <v>53681.79897829007</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19198,15 +18568,11 @@
         <v>53681.79897829007</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19235,15 +18601,11 @@
         <v>54872.19577829007</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19272,15 +18634,11 @@
         <v>54872.19577829007</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19309,15 +18667,11 @@
         <v>54872.19577829007</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19346,15 +18700,11 @@
         <v>55769.53677829007</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19383,15 +18733,11 @@
         <v>56107.01587829007</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19420,15 +18766,11 @@
         <v>53467.18917829007</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19457,15 +18799,11 @@
         <v>54687.29527829007</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19494,15 +18832,11 @@
         <v>52040.19187829007</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19531,15 +18865,11 @@
         <v>62427.10827829007</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19568,15 +18898,11 @@
         <v>62427.10827829007</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19605,15 +18931,11 @@
         <v>60368.53447829007</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19642,15 +18964,11 @@
         <v>70683.42377829007</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19679,15 +18997,11 @@
         <v>119298.5463782901</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19720,11 +19034,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19757,11 +19067,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19794,11 +19100,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19831,11 +19133,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19868,11 +19166,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19905,11 +19199,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19942,11 +19232,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19979,11 +19265,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20016,11 +19298,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20053,11 +19331,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20090,11 +19364,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20127,11 +19397,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20164,11 +19430,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20201,11 +19463,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20238,11 +19496,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20275,11 +19529,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20312,11 +19562,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20349,11 +19595,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20386,11 +19628,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20423,11 +19661,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20460,11 +19694,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20497,11 +19727,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20534,11 +19760,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20571,11 +19793,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20608,11 +19826,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20645,11 +19859,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20678,16 +19888,14 @@
         <v>110361.7947782901</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
+      <c r="L591" t="n">
+        <v>1</v>
+      </c>
       <c r="M591" t="inlineStr"/>
     </row>
     <row r="592">
@@ -20746,7 +19954,7 @@
         <v>110361.7947782901</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -20779,7 +19987,7 @@
         <v>111762.5178782901</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21604,7 +20812,7 @@
         <v>131560.765985645</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21637,7 +20845,7 @@
         <v>133079.549385645</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21769,7 +20977,7 @@
         <v>130668.083885645</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21802,7 +21010,7 @@
         <v>130668.083885645</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21835,7 +21043,7 @@
         <v>132176.362985645</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21868,7 +21076,7 @@
         <v>130976.977285645</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21901,7 +21109,7 @@
         <v>130651.498185645</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21934,7 +21142,7 @@
         <v>130651.498185645</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21967,7 +21175,7 @@
         <v>131880.622785645</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22000,7 +21208,7 @@
         <v>131543.143685645</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22033,7 +21241,7 @@
         <v>133928.246485645</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22066,7 +21274,7 @@
         <v>131742.277585645</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22660,7 +21868,7 @@
         <v>-8938.015914354988</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22693,7 +21901,7 @@
         <v>-8287.057714354989</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22726,7 +21934,7 @@
         <v>-9155.986814354988</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22759,7 +21967,7 @@
         <v>-8275.020114354989</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22792,7 +22000,7 @@
         <v>-8275.020114354989</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22825,7 +22033,7 @@
         <v>-9810.61671435499</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22858,7 +22066,7 @@
         <v>-9485.13761435499</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22891,7 +22099,7 @@
         <v>-9485.13761435499</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22924,7 +22132,7 @@
         <v>-9485.13761435499</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22957,7 +22165,7 @@
         <v>-9810.61671435499</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22990,7 +22198,7 @@
         <v>-9810.61671435499</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23023,7 +22231,7 @@
         <v>-9810.61671435499</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23056,7 +22264,7 @@
         <v>-9485.13761435499</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -27214,7 +26422,7 @@
         <v>12271.19638564499</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -27247,7 +26455,7 @@
         <v>11069.50838564499</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -27280,7 +26488,7 @@
         <v>11069.50838564499</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -27412,7 +26620,7 @@
         <v>-13988.64421435501</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -27544,7 +26752,7 @@
         <v>-11498.71601435501</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -27577,7 +26785,7 @@
         <v>-11824.19511435501</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -27610,7 +26818,7 @@
         <v>-11824.19511435501</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -27643,7 +26851,7 @@
         <v>-13836.59781435501</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -27676,7 +26884,7 @@
         <v>-12325.70571435501</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -27709,7 +26917,7 @@
         <v>-12325.70571435501</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -27742,7 +26950,7 @@
         <v>-12325.70571435501</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -27775,7 +26983,7 @@
         <v>-11443.17481435501</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27808,7 +27016,7 @@
         <v>-10466.73751435501</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27841,7 +27049,7 @@
         <v>-3381.871014355012</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27874,7 +27082,7 @@
         <v>-5009.266514355013</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27907,7 +27115,7 @@
         <v>-5009.266514355013</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27973,7 +27181,7 @@
         <v>-12223.04681435501</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -28006,7 +27214,7 @@
         <v>-10128.20831435501</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -28039,7 +27247,7 @@
         <v>-11104.64561435501</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -28072,7 +27280,7 @@
         <v>-11104.64561435501</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -28105,7 +27313,7 @@
         <v>-7728.600214355013</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -28138,7 +27346,7 @@
         <v>-48799.93731435501</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -28204,7 +27412,7 @@
         <v>-46992.19201435501</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -28237,7 +27445,7 @@
         <v>-47317.67111435501</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -28270,7 +27478,7 @@
         <v>-47317.67111435501</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -28303,7 +27511,7 @@
         <v>-49070.316014355</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -30712,10 +29920,14 @@
         <v>-120196.128114355</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
-      <c r="J895" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="J895" t="n">
+        <v>43.5</v>
+      </c>
       <c r="K895" t="inlineStr"/>
       <c r="L895" t="n">
         <v>1</v>
@@ -30745,11 +29957,19 @@
         <v>-118600.832714355</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
-      <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I896" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="J896" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30778,11 +29998,19 @@
         <v>-120143.299614355</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
-      <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J897" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30811,11 +30039,19 @@
         <v>-120143.299614355</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
-      <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="J898" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30844,11 +30080,19 @@
         <v>-120143.299614355</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
-      <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="J899" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30877,11 +30121,19 @@
         <v>-121329.723214355</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
-      <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="J900" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30910,11 +30162,19 @@
         <v>-121329.723214355</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
-      </c>
-      <c r="I901" t="inlineStr"/>
-      <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I901" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="J901" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30943,11 +30203,19 @@
         <v>-121329.723214355</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
-      <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="J902" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30976,11 +30244,19 @@
         <v>-120450.600314355</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
-      <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="J903" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -31012,8 +30288,14 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="J904" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -31042,11 +30324,19 @@
         <v>-121427.037614355</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
-      </c>
-      <c r="I905" t="inlineStr"/>
-      <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I905" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="J905" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -31075,11 +30365,19 @@
         <v>-120450.600314355</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
-      </c>
-      <c r="I906" t="inlineStr"/>
-      <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I906" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="J906" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -31111,8 +30409,14 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="J907" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -31144,8 +30448,14 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="J908" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -31177,8 +30487,14 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="J909" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -31210,8 +30526,14 @@
         <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="J910" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -31243,8 +30565,14 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="J911" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -31276,8 +30604,14 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="J912" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -31309,8 +30643,14 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="J913" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -31342,8 +30682,14 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="J914" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -31375,8 +30721,14 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="J915" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -31408,8 +30760,14 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="J916" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -31441,8 +30799,14 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="J917" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -31471,11 +30835,19 @@
         <v>-123077.842914355</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
-      </c>
-      <c r="I918" t="inlineStr"/>
-      <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I918" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="J918" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -31507,8 +30879,14 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="J919" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -31540,8 +30918,14 @@
         <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="J920" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -31573,8 +30957,14 @@
         <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="J921" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -31606,8 +30996,14 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="J922" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -31639,8 +31035,14 @@
         <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
-      <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="J923" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -31672,8 +31074,14 @@
         <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="J924" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -31705,8 +31113,14 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="J925" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -31738,8 +31152,14 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="J926" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -31771,8 +31191,14 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="J927" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31804,8 +31230,14 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="J928" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31837,8 +31269,14 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="J929" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31870,8 +31308,14 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="J930" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31903,8 +31347,14 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="J931" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31936,8 +31386,14 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="J932" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -31969,8 +31425,14 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="J933" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -32002,8 +31464,14 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="J934" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -32035,8 +31503,14 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="J935" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -32068,8 +31542,14 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="J936" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -32101,8 +31581,14 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="J937" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -32134,8 +31620,14 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="J938" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -32167,8 +31659,14 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="J939" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -32200,8 +31698,14 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="J940" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -32233,8 +31737,14 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="J941" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -32266,8 +31776,14 @@
         <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
-      <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="J942" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -32299,8 +31815,14 @@
         <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="J943" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -32332,8 +31854,14 @@
         <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
-      <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="J944" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -32365,8 +31893,14 @@
         <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
-      <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="J945" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -32398,8 +31932,14 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="J946" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -32431,8 +31971,14 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="J947" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -32464,8 +32010,14 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="J948" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -32497,8 +32049,14 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="J949" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -32530,8 +32088,14 @@
         <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="J950" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -32563,8 +32127,14 @@
         <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="J951" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -32596,8 +32166,14 @@
         <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="J952" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -32629,8 +32205,14 @@
         <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="J953" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -32662,8 +32244,14 @@
         <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
-      <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="J954" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -32695,8 +32283,14 @@
         <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
-      <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="J955" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -32728,8 +32322,14 @@
         <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
-      <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="J956" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -32761,8 +32361,14 @@
         <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
-      <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="J957" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -32794,8 +32400,14 @@
         <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
-      <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="J958" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -32827,8 +32439,14 @@
         <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
-      <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="J959" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -32860,8 +32478,14 @@
         <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
-      <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="J960" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -32893,8 +32517,14 @@
         <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
-      <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="J961" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -32926,8 +32556,14 @@
         <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
-      <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="J962" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -32959,8 +32595,14 @@
         <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
-      <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="J963" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -32992,8 +32634,14 @@
         <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
-      <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="J964" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -33025,8 +32673,14 @@
         <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
-      <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="J965" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -33058,8 +32712,14 @@
         <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
-      <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="J966" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -33091,8 +32751,14 @@
         <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
-      <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="J967" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -33124,8 +32790,14 @@
         <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="J968" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -33157,8 +32829,14 @@
         <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
-      <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="J969" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -33190,8 +32868,14 @@
         <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="J970" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -33223,8 +32907,14 @@
         <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="J971" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -33253,11 +32943,19 @@
         <v>-152945.257414355</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
-      </c>
-      <c r="I972" t="inlineStr"/>
-      <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I972" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J972" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -33289,8 +32987,14 @@
         <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
-      <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="J973" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -33322,8 +33026,14 @@
         <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
-      <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="J974" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -33355,8 +33065,14 @@
         <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
-      <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="J975" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -33388,8 +33104,14 @@
         <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="J976" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -33421,8 +33143,14 @@
         <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="J977" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -33454,8 +33182,14 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="J978" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -33487,8 +33221,14 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="J979" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -33520,8 +33260,14 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="J980" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -33553,8 +33299,14 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="J981" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -33586,8 +33338,14 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="J982" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -33619,8 +33377,14 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="J983" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -33652,8 +33416,14 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="J984" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -33685,8 +33455,14 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="J985" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -33718,8 +33494,14 @@
         <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="J986" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -33751,8 +33533,14 @@
         <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
-      <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="J987" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -33784,8 +33572,14 @@
         <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
-      <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="J988" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -33817,8 +33611,14 @@
         <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
-      <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="J989" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -33850,8 +33650,14 @@
         <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
-      <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="J990" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -33883,8 +33689,14 @@
         <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
-      <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="J991" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -33916,8 +33728,14 @@
         <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
-      <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="J992" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -33949,8 +33767,14 @@
         <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
-      <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="J993" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -33982,8 +33806,14 @@
         <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
-      <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="J994" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -34015,8 +33845,14 @@
         <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
-      <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="J995" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -34048,8 +33884,14 @@
         <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
-      <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="J996" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -34081,8 +33923,14 @@
         <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
-      <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="J997" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -34114,8 +33962,14 @@
         <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
-      <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="J998" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -34147,8 +34001,14 @@
         <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
-      <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="J999" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -34180,8 +34040,14 @@
         <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="J1000" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -34213,8 +34079,14 @@
         <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="J1001" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -34246,8 +34118,14 @@
         <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="J1002" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -34279,8 +34157,14 @@
         <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="J1003" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -34312,8 +34196,14 @@
         <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
-      <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="J1004" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -34345,8 +34235,14 @@
         <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="J1005" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -34378,8 +34274,14 @@
         <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
-      <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="J1006" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -34411,8 +34313,14 @@
         <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
-      <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="J1007" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -34444,8 +34352,14 @@
         <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="J1008" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -34477,8 +34391,14 @@
         <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="J1009" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -34510,8 +34430,14 @@
         <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
-      <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="J1010" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -34543,8 +34469,14 @@
         <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
-      <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="J1011" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -34576,8 +34508,14 @@
         <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
-      <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="J1012" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -34609,8 +34547,14 @@
         <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
-      <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="J1013" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -34642,8 +34586,14 @@
         <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
-      <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="J1014" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -34675,8 +34625,14 @@
         <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
-      <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="J1015" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -34708,8 +34664,14 @@
         <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="J1016" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -34741,8 +34703,14 @@
         <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="J1017" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -34774,8 +34742,14 @@
         <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="J1018" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34807,8 +34781,14 @@
         <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="J1019" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34840,8 +34820,14 @@
         <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="J1020" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -34873,8 +34859,14 @@
         <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
-      <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+      <c r="J1021" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -34906,8 +34898,14 @@
         <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+      <c r="J1022" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -34939,8 +34937,14 @@
         <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+      <c r="J1023" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -34972,8 +34976,14 @@
         <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+      <c r="J1024" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -35005,8 +35015,14 @@
         <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="J1025" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -35038,8 +35054,14 @@
         <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+      <c r="J1026" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -35071,8 +35093,14 @@
         <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="J1027" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -35104,8 +35132,14 @@
         <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+      <c r="J1028" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -35137,8 +35171,14 @@
         <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+      <c r="J1029" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -35170,8 +35210,14 @@
         <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="J1030" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -35203,8 +35249,14 @@
         <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="J1031" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -35236,8 +35288,14 @@
         <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+      <c r="J1032" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -35269,8 +35327,14 @@
         <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+      <c r="J1033" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -35302,8 +35366,14 @@
         <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+      <c r="J1034" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -35335,8 +35405,14 @@
         <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+      <c r="J1035" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -35368,8 +35444,14 @@
         <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+      <c r="J1036" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -35401,8 +35483,14 @@
         <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+      <c r="J1037" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -35434,8 +35522,14 @@
         <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
+      <c r="J1038" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -35467,8 +35561,14 @@
         <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
+      <c r="J1039" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -35497,11 +35597,19 @@
         <v>-167174.7356763681</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1040" t="inlineStr"/>
-      <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J1040" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -35530,11 +35638,19 @@
         <v>-165334.9828763681</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J1041" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -35563,11 +35679,19 @@
         <v>-166311.4201763681</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1042" t="inlineStr"/>
-      <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>43.61</v>
+      </c>
+      <c r="J1042" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -35596,11 +35720,19 @@
         <v>-167195.0236763681</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1043" t="inlineStr"/>
-      <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J1043" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -35629,11 +35761,19 @@
         <v>-166869.5445763681</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1044" t="inlineStr"/>
-      <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="J1044" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -35662,11 +35802,19 @@
         <v>-166869.5445763681</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1045" t="inlineStr"/>
-      <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J1045" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -35695,11 +35843,19 @@
         <v>-166544.0654763681</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1046" t="inlineStr"/>
-      <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -35728,11 +35884,19 @@
         <v>-167195.0236763681</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1047" t="inlineStr"/>
-      <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>43.61</v>
+      </c>
+      <c r="J1047" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -35761,11 +35925,19 @@
         <v>-167195.0236763681</v>
       </c>
       <c r="H1048" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1048" t="inlineStr"/>
-      <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="J1048" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -35794,11 +35966,19 @@
         <v>-166869.5445763681</v>
       </c>
       <c r="H1049" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1049" t="inlineStr"/>
-      <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="J1049" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1049" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -35827,11 +36007,19 @@
         <v>-167745.5003763681</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1050" t="inlineStr"/>
-      <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>43.61</v>
+      </c>
+      <c r="J1050" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1050" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -35860,11 +36048,19 @@
         <v>-167745.5003763681</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1051" t="inlineStr"/>
-      <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J1051" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1051" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -35893,11 +36089,19 @@
         <v>-167420.0212763681</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1052" t="inlineStr"/>
-      <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J1052" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1052" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -35926,11 +36130,19 @@
         <v>-168938.1536763681</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1053" t="inlineStr"/>
-      <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>43.61</v>
+      </c>
+      <c r="J1053" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1053" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -35959,11 +36171,19 @@
         <v>-168986.7824763681</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1054" t="inlineStr"/>
-      <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="J1054" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1054" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -35992,11 +36212,19 @@
         <v>-168938.8500763681</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1055" t="inlineStr"/>
-      <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="J1055" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1055" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -36025,11 +36253,19 @@
         <v>-168938.8500763681</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1056" t="inlineStr"/>
-      <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J1056" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1056" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -36058,11 +36294,19 @@
         <v>-168938.8500763681</v>
       </c>
       <c r="H1057" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1057" t="inlineStr"/>
-      <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J1057" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1057" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -36091,11 +36335,19 @@
         <v>-168938.8500763681</v>
       </c>
       <c r="H1058" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1058" t="inlineStr"/>
-      <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="J1058" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1058" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -36127,8 +36379,14 @@
         <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
-      <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr"/>
+      <c r="J1059" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1059" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -36160,8 +36418,14 @@
         <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
-      <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr"/>
+      <c r="J1060" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1060" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -36193,8 +36457,14 @@
         <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
-      <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr"/>
+      <c r="J1061" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1061" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -36226,8 +36496,14 @@
         <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
-      <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr"/>
+      <c r="J1062" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1062" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -36256,11 +36532,19 @@
         <v>-169592.5235763681</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1063" t="inlineStr"/>
-      <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="J1063" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1063" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -36292,8 +36576,14 @@
         <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
-      <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr"/>
+      <c r="J1064" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1064" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -36325,8 +36615,14 @@
         <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
-      <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr"/>
+      <c r="J1065" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1065" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -36358,8 +36654,14 @@
         <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
-      <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr"/>
+      <c r="J1066" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1066" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -36391,8 +36693,14 @@
         <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
-      <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr"/>
+      <c r="J1067" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1067" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -36424,8 +36732,14 @@
         <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
-      <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr"/>
+      <c r="J1068" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1068" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -36457,8 +36771,14 @@
         <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
-      <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr"/>
+      <c r="J1069" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1069" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -36490,8 +36810,14 @@
         <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
-      <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr"/>
+      <c r="J1070" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1070" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -36523,8 +36849,14 @@
         <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
-      <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr"/>
+      <c r="J1071" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1071" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -36556,8 +36888,14 @@
         <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
-      <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr"/>
+      <c r="J1072" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1072" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -36589,8 +36927,14 @@
         <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
-      <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr"/>
+      <c r="J1073" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1073" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -36622,8 +36966,14 @@
         <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
-      <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr"/>
+      <c r="J1074" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1074" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -36655,8 +37005,14 @@
         <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
-      <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr"/>
+      <c r="J1075" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1075" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -36688,8 +37044,14 @@
         <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
-      <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr"/>
+      <c r="J1076" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1076" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -36721,8 +37083,14 @@
         <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
-      <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr"/>
+      <c r="J1077" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1077" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -36754,8 +37122,14 @@
         <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
-      <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr"/>
+      <c r="J1078" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1078" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -36787,8 +37161,14 @@
         <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
-      <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr"/>
+      <c r="J1079" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1079" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -36820,8 +37200,14 @@
         <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
-      <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr"/>
+      <c r="J1080" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1080" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -36853,8 +37239,14 @@
         <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
-      <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr"/>
+      <c r="J1081" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1081" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -36886,8 +37278,14 @@
         <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
-      <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr"/>
+      <c r="J1082" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1082" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -36919,8 +37317,14 @@
         <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
-      <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr"/>
+      <c r="J1083" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1083" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -36952,8 +37356,14 @@
         <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
-      <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr"/>
+      <c r="J1084" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1084" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -36985,8 +37395,14 @@
         <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
-      <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr"/>
+      <c r="J1085" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1085" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -37018,8 +37434,14 @@
         <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
-      <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr"/>
+      <c r="J1086" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1086" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -37051,8 +37473,14 @@
         <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
-      <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr"/>
+      <c r="J1087" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1087" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -37084,8 +37512,14 @@
         <v>0</v>
       </c>
       <c r="I1088" t="inlineStr"/>
-      <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr"/>
+      <c r="J1088" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1088" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -37117,8 +37551,14 @@
         <v>0</v>
       </c>
       <c r="I1089" t="inlineStr"/>
-      <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr"/>
+      <c r="J1089" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1089" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -37150,8 +37590,14 @@
         <v>0</v>
       </c>
       <c r="I1090" t="inlineStr"/>
-      <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr"/>
+      <c r="J1090" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1090" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1090" t="n">
         <v>1</v>
       </c>
@@ -37183,8 +37629,14 @@
         <v>0</v>
       </c>
       <c r="I1091" t="inlineStr"/>
-      <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr"/>
+      <c r="J1091" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1091" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -37216,8 +37668,14 @@
         <v>0</v>
       </c>
       <c r="I1092" t="inlineStr"/>
-      <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr"/>
+      <c r="J1092" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1092" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -37249,8 +37707,14 @@
         <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
-      <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr"/>
+      <c r="J1093" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1093" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
@@ -37282,8 +37746,14 @@
         <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
-      <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr"/>
+      <c r="J1094" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1094" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1094" t="n">
         <v>1</v>
       </c>
@@ -37315,8 +37785,14 @@
         <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
-      <c r="J1095" t="inlineStr"/>
-      <c r="K1095" t="inlineStr"/>
+      <c r="J1095" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1095" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -37348,8 +37824,14 @@
         <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
-      <c r="J1096" t="inlineStr"/>
-      <c r="K1096" t="inlineStr"/>
+      <c r="J1096" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1096" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -37381,8 +37863,14 @@
         <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
-      <c r="J1097" t="inlineStr"/>
-      <c r="K1097" t="inlineStr"/>
+      <c r="J1097" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1097" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -37414,8 +37902,14 @@
         <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
-      <c r="J1098" t="inlineStr"/>
-      <c r="K1098" t="inlineStr"/>
+      <c r="J1098" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1098" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
@@ -37447,8 +37941,14 @@
         <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
-      <c r="J1099" t="inlineStr"/>
-      <c r="K1099" t="inlineStr"/>
+      <c r="J1099" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1099" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1099" t="n">
         <v>1</v>
       </c>
@@ -37480,8 +37980,14 @@
         <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
-      <c r="J1100" t="inlineStr"/>
-      <c r="K1100" t="inlineStr"/>
+      <c r="J1100" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1100" t="n">
         <v>1</v>
       </c>
@@ -37513,8 +38019,14 @@
         <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
-      <c r="J1101" t="inlineStr"/>
-      <c r="K1101" t="inlineStr"/>
+      <c r="J1101" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1101" t="n">
         <v>1</v>
       </c>
@@ -37546,8 +38058,14 @@
         <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
-      <c r="J1102" t="inlineStr"/>
-      <c r="K1102" t="inlineStr"/>
+      <c r="J1102" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1102" t="n">
         <v>1</v>
       </c>
@@ -37579,8 +38097,14 @@
         <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
-      <c r="J1103" t="inlineStr"/>
-      <c r="K1103" t="inlineStr"/>
+      <c r="J1103" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1103" t="n">
         <v>1</v>
       </c>
@@ -37612,8 +38136,14 @@
         <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
-      <c r="J1104" t="inlineStr"/>
-      <c r="K1104" t="inlineStr"/>
+      <c r="J1104" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1104" t="n">
         <v>1</v>
       </c>
@@ -37645,8 +38175,14 @@
         <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
-      <c r="J1105" t="inlineStr"/>
-      <c r="K1105" t="inlineStr"/>
+      <c r="J1105" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1105" t="n">
         <v>1</v>
       </c>
@@ -37678,8 +38214,14 @@
         <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
-      <c r="J1106" t="inlineStr"/>
-      <c r="K1106" t="inlineStr"/>
+      <c r="J1106" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1106" t="n">
         <v>1</v>
       </c>
@@ -37711,8 +38253,14 @@
         <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
-      <c r="J1107" t="inlineStr"/>
-      <c r="K1107" t="inlineStr"/>
+      <c r="J1107" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1107" t="n">
         <v>1</v>
       </c>
@@ -37744,8 +38292,14 @@
         <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
-      <c r="J1108" t="inlineStr"/>
-      <c r="K1108" t="inlineStr"/>
+      <c r="J1108" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1108" t="n">
         <v>1</v>
       </c>
@@ -37777,8 +38331,14 @@
         <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
-      <c r="J1109" t="inlineStr"/>
-      <c r="K1109" t="inlineStr"/>
+      <c r="J1109" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1109" t="n">
         <v>1</v>
       </c>
@@ -37810,8 +38370,14 @@
         <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
-      <c r="J1110" t="inlineStr"/>
-      <c r="K1110" t="inlineStr"/>
+      <c r="J1110" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1110" t="n">
         <v>1</v>
       </c>
@@ -37843,8 +38409,14 @@
         <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
-      <c r="J1111" t="inlineStr"/>
-      <c r="K1111" t="inlineStr"/>
+      <c r="J1111" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1111" t="n">
         <v>1</v>
       </c>
@@ -37876,8 +38448,14 @@
         <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
-      <c r="J1112" t="inlineStr"/>
-      <c r="K1112" t="inlineStr"/>
+      <c r="J1112" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1112" t="n">
         <v>1</v>
       </c>
@@ -37909,8 +38487,14 @@
         <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
-      <c r="J1113" t="inlineStr"/>
-      <c r="K1113" t="inlineStr"/>
+      <c r="J1113" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1113" t="n">
         <v>1</v>
       </c>
@@ -37942,8 +38526,14 @@
         <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
-      <c r="J1114" t="inlineStr"/>
-      <c r="K1114" t="inlineStr"/>
+      <c r="J1114" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1114" t="n">
         <v>1</v>
       </c>
@@ -37975,8 +38565,14 @@
         <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
-      <c r="J1115" t="inlineStr"/>
-      <c r="K1115" t="inlineStr"/>
+      <c r="J1115" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1115" t="n">
         <v>1</v>
       </c>
@@ -38008,8 +38604,14 @@
         <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
-      <c r="J1116" t="inlineStr"/>
-      <c r="K1116" t="inlineStr"/>
+      <c r="J1116" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1116" t="n">
         <v>1</v>
       </c>
@@ -38041,8 +38643,14 @@
         <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
-      <c r="J1117" t="inlineStr"/>
-      <c r="K1117" t="inlineStr"/>
+      <c r="J1117" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1117" t="n">
         <v>1</v>
       </c>
@@ -38074,8 +38682,14 @@
         <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
-      <c r="J1118" t="inlineStr"/>
-      <c r="K1118" t="inlineStr"/>
+      <c r="J1118" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1118" t="n">
         <v>1</v>
       </c>
@@ -38107,8 +38721,14 @@
         <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
-      <c r="J1119" t="inlineStr"/>
-      <c r="K1119" t="inlineStr"/>
+      <c r="J1119" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1119" t="n">
         <v>1</v>
       </c>
@@ -38140,8 +38760,14 @@
         <v>0</v>
       </c>
       <c r="I1120" t="inlineStr"/>
-      <c r="J1120" t="inlineStr"/>
-      <c r="K1120" t="inlineStr"/>
+      <c r="J1120" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1120" t="n">
         <v>1</v>
       </c>
@@ -38173,8 +38799,14 @@
         <v>0</v>
       </c>
       <c r="I1121" t="inlineStr"/>
-      <c r="J1121" t="inlineStr"/>
-      <c r="K1121" t="inlineStr"/>
+      <c r="J1121" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1121" t="n">
         <v>1</v>
       </c>
@@ -38206,8 +38838,14 @@
         <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="inlineStr"/>
-      <c r="K1122" t="inlineStr"/>
+      <c r="J1122" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1122" t="n">
         <v>1</v>
       </c>
@@ -38239,8 +38877,14 @@
         <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="inlineStr"/>
-      <c r="K1123" t="inlineStr"/>
+      <c r="J1123" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1123" t="n">
         <v>1</v>
       </c>
@@ -38272,8 +38916,14 @@
         <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="inlineStr"/>
-      <c r="K1124" t="inlineStr"/>
+      <c r="J1124" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1124" t="n">
         <v>1</v>
       </c>
@@ -38305,8 +38955,14 @@
         <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
-      <c r="J1125" t="inlineStr"/>
-      <c r="K1125" t="inlineStr"/>
+      <c r="J1125" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1125" t="n">
         <v>1</v>
       </c>
@@ -38338,8 +38994,14 @@
         <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
-      <c r="J1126" t="inlineStr"/>
-      <c r="K1126" t="inlineStr"/>
+      <c r="J1126" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1126" t="n">
         <v>1</v>
       </c>
@@ -38371,8 +39033,14 @@
         <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
-      <c r="J1127" t="inlineStr"/>
-      <c r="K1127" t="inlineStr"/>
+      <c r="J1127" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1127" t="n">
         <v>1</v>
       </c>
@@ -38404,8 +39072,14 @@
         <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
-      <c r="J1128" t="inlineStr"/>
-      <c r="K1128" t="inlineStr"/>
+      <c r="J1128" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1128" t="n">
         <v>1</v>
       </c>
@@ -38434,11 +39108,19 @@
         <v>-245622.0194599681</v>
       </c>
       <c r="H1129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1129" t="inlineStr"/>
-      <c r="J1129" t="inlineStr"/>
-      <c r="K1129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1129" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J1129" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1129" t="n">
         <v>1</v>
       </c>
@@ -38467,11 +39149,19 @@
         <v>-245490.0194599681</v>
       </c>
       <c r="H1130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1130" t="inlineStr"/>
-      <c r="J1130" t="inlineStr"/>
-      <c r="K1130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1130" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J1130" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1130" t="n">
         <v>1</v>
       </c>
@@ -38500,11 +39190,19 @@
         <v>-245490.0194599681</v>
       </c>
       <c r="H1131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1131" t="inlineStr"/>
-      <c r="J1131" t="inlineStr"/>
-      <c r="K1131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J1131" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1131" t="n">
         <v>1</v>
       </c>
@@ -38533,11 +39231,19 @@
         <v>-231876.5063599681</v>
       </c>
       <c r="H1132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1132" t="inlineStr"/>
-      <c r="J1132" t="inlineStr"/>
-      <c r="K1132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1132" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J1132" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1132" t="n">
         <v>1</v>
       </c>
@@ -38566,11 +39272,19 @@
         <v>-241218.5402599681</v>
       </c>
       <c r="H1133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1133" t="inlineStr"/>
-      <c r="J1133" t="inlineStr"/>
-      <c r="K1133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1133" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="J1133" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1133" t="n">
         <v>1</v>
       </c>
@@ -38602,8 +39316,14 @@
         <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
-      <c r="J1134" t="inlineStr"/>
-      <c r="K1134" t="inlineStr"/>
+      <c r="J1134" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1134" t="n">
         <v>1</v>
       </c>
@@ -38635,8 +39355,14 @@
         <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
-      <c r="J1135" t="inlineStr"/>
-      <c r="K1135" t="inlineStr"/>
+      <c r="J1135" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1135" t="n">
         <v>1</v>
       </c>
@@ -38668,8 +39394,14 @@
         <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
-      <c r="J1136" t="inlineStr"/>
-      <c r="K1136" t="inlineStr"/>
+      <c r="J1136" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1136" t="n">
         <v>1</v>
       </c>
@@ -38701,8 +39433,14 @@
         <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
-      <c r="J1137" t="inlineStr"/>
-      <c r="K1137" t="inlineStr"/>
+      <c r="J1137" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1137" t="n">
         <v>1</v>
       </c>
@@ -38734,8 +39472,14 @@
         <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
-      <c r="J1138" t="inlineStr"/>
-      <c r="K1138" t="inlineStr"/>
+      <c r="J1138" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1138" t="n">
         <v>1</v>
       </c>
@@ -38767,8 +39511,14 @@
         <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
-      <c r="J1139" t="inlineStr"/>
-      <c r="K1139" t="inlineStr"/>
+      <c r="J1139" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1139" t="n">
         <v>1</v>
       </c>
@@ -38800,8 +39550,14 @@
         <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="inlineStr"/>
-      <c r="K1140" t="inlineStr"/>
+      <c r="J1140" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1140" t="n">
         <v>1</v>
       </c>
@@ -38833,8 +39589,14 @@
         <v>0</v>
       </c>
       <c r="I1141" t="inlineStr"/>
-      <c r="J1141" t="inlineStr"/>
-      <c r="K1141" t="inlineStr"/>
+      <c r="J1141" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1141" t="n">
         <v>1</v>
       </c>
@@ -38866,8 +39628,14 @@
         <v>0</v>
       </c>
       <c r="I1142" t="inlineStr"/>
-      <c r="J1142" t="inlineStr"/>
-      <c r="K1142" t="inlineStr"/>
+      <c r="J1142" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1142" t="n">
         <v>1</v>
       </c>
@@ -38899,8 +39667,14 @@
         <v>0</v>
       </c>
       <c r="I1143" t="inlineStr"/>
-      <c r="J1143" t="inlineStr"/>
-      <c r="K1143" t="inlineStr"/>
+      <c r="J1143" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1143" t="n">
         <v>1</v>
       </c>
@@ -38932,8 +39706,14 @@
         <v>0</v>
       </c>
       <c r="I1144" t="inlineStr"/>
-      <c r="J1144" t="inlineStr"/>
-      <c r="K1144" t="inlineStr"/>
+      <c r="J1144" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1144" t="n">
         <v>1</v>
       </c>
@@ -38965,8 +39745,14 @@
         <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
-      <c r="J1145" t="inlineStr"/>
-      <c r="K1145" t="inlineStr"/>
+      <c r="J1145" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1145" t="n">
         <v>1</v>
       </c>
@@ -38998,8 +39784,14 @@
         <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
-      <c r="J1146" t="inlineStr"/>
-      <c r="K1146" t="inlineStr"/>
+      <c r="J1146" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1146" t="n">
         <v>1</v>
       </c>
@@ -39031,8 +39823,14 @@
         <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
-      <c r="J1147" t="inlineStr"/>
-      <c r="K1147" t="inlineStr"/>
+      <c r="J1147" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1147" t="n">
         <v>1</v>
       </c>
@@ -39064,8 +39862,14 @@
         <v>0</v>
       </c>
       <c r="I1148" t="inlineStr"/>
-      <c r="J1148" t="inlineStr"/>
-      <c r="K1148" t="inlineStr"/>
+      <c r="J1148" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1148" t="n">
         <v>1</v>
       </c>
@@ -39097,8 +39901,14 @@
         <v>0</v>
       </c>
       <c r="I1149" t="inlineStr"/>
-      <c r="J1149" t="inlineStr"/>
-      <c r="K1149" t="inlineStr"/>
+      <c r="J1149" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1149" t="n">
         <v>1</v>
       </c>
@@ -39130,8 +39940,14 @@
         <v>0</v>
       </c>
       <c r="I1150" t="inlineStr"/>
-      <c r="J1150" t="inlineStr"/>
-      <c r="K1150" t="inlineStr"/>
+      <c r="J1150" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1150" t="n">
         <v>1</v>
       </c>
@@ -39163,8 +39979,14 @@
         <v>0</v>
       </c>
       <c r="I1151" t="inlineStr"/>
-      <c r="J1151" t="inlineStr"/>
-      <c r="K1151" t="inlineStr"/>
+      <c r="J1151" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1151" t="n">
         <v>1</v>
       </c>
@@ -39196,8 +40018,14 @@
         <v>0</v>
       </c>
       <c r="I1152" t="inlineStr"/>
-      <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr"/>
+      <c r="J1152" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1152" t="n">
         <v>1</v>
       </c>
@@ -39229,8 +40057,14 @@
         <v>0</v>
       </c>
       <c r="I1153" t="inlineStr"/>
-      <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr"/>
+      <c r="J1153" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1153" t="n">
         <v>1</v>
       </c>
@@ -39262,8 +40096,14 @@
         <v>0</v>
       </c>
       <c r="I1154" t="inlineStr"/>
-      <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr"/>
+      <c r="J1154" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1154" t="n">
         <v>1</v>
       </c>
@@ -39295,8 +40135,14 @@
         <v>0</v>
       </c>
       <c r="I1155" t="inlineStr"/>
-      <c r="J1155" t="inlineStr"/>
-      <c r="K1155" t="inlineStr"/>
+      <c r="J1155" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1155" t="n">
         <v>1</v>
       </c>
@@ -39328,8 +40174,14 @@
         <v>0</v>
       </c>
       <c r="I1156" t="inlineStr"/>
-      <c r="J1156" t="inlineStr"/>
-      <c r="K1156" t="inlineStr"/>
+      <c r="J1156" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1156" t="n">
         <v>1</v>
       </c>
@@ -39361,8 +40213,14 @@
         <v>0</v>
       </c>
       <c r="I1157" t="inlineStr"/>
-      <c r="J1157" t="inlineStr"/>
-      <c r="K1157" t="inlineStr"/>
+      <c r="J1157" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1157" t="n">
         <v>1</v>
       </c>
@@ -39394,8 +40252,14 @@
         <v>0</v>
       </c>
       <c r="I1158" t="inlineStr"/>
-      <c r="J1158" t="inlineStr"/>
-      <c r="K1158" t="inlineStr"/>
+      <c r="J1158" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1158" t="n">
         <v>1</v>
       </c>
@@ -39427,8 +40291,14 @@
         <v>0</v>
       </c>
       <c r="I1159" t="inlineStr"/>
-      <c r="J1159" t="inlineStr"/>
-      <c r="K1159" t="inlineStr"/>
+      <c r="J1159" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1159" t="n">
         <v>1</v>
       </c>
@@ -39460,8 +40330,14 @@
         <v>0</v>
       </c>
       <c r="I1160" t="inlineStr"/>
-      <c r="J1160" t="inlineStr"/>
-      <c r="K1160" t="inlineStr"/>
+      <c r="J1160" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1160" t="n">
         <v>1</v>
       </c>
@@ -39493,8 +40369,14 @@
         <v>0</v>
       </c>
       <c r="I1161" t="inlineStr"/>
-      <c r="J1161" t="inlineStr"/>
-      <c r="K1161" t="inlineStr"/>
+      <c r="J1161" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1161" t="n">
         <v>1</v>
       </c>
@@ -39526,8 +40408,14 @@
         <v>0</v>
       </c>
       <c r="I1162" t="inlineStr"/>
-      <c r="J1162" t="inlineStr"/>
-      <c r="K1162" t="inlineStr"/>
+      <c r="J1162" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1162" t="n">
         <v>1</v>
       </c>
@@ -39559,8 +40447,14 @@
         <v>0</v>
       </c>
       <c r="I1163" t="inlineStr"/>
-      <c r="J1163" t="inlineStr"/>
-      <c r="K1163" t="inlineStr"/>
+      <c r="J1163" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1163" t="n">
         <v>1</v>
       </c>
@@ -39592,8 +40486,14 @@
         <v>0</v>
       </c>
       <c r="I1164" t="inlineStr"/>
-      <c r="J1164" t="inlineStr"/>
-      <c r="K1164" t="inlineStr"/>
+      <c r="J1164" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1164" t="n">
         <v>1</v>
       </c>
@@ -39625,8 +40525,14 @@
         <v>0</v>
       </c>
       <c r="I1165" t="inlineStr"/>
-      <c r="J1165" t="inlineStr"/>
-      <c r="K1165" t="inlineStr"/>
+      <c r="J1165" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1165" t="n">
         <v>1</v>
       </c>
@@ -39658,8 +40564,14 @@
         <v>0</v>
       </c>
       <c r="I1166" t="inlineStr"/>
-      <c r="J1166" t="inlineStr"/>
-      <c r="K1166" t="inlineStr"/>
+      <c r="J1166" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1166" t="n">
         <v>1</v>
       </c>
@@ -39691,8 +40603,14 @@
         <v>0</v>
       </c>
       <c r="I1167" t="inlineStr"/>
-      <c r="J1167" t="inlineStr"/>
-      <c r="K1167" t="inlineStr"/>
+      <c r="J1167" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1167" t="n">
         <v>1</v>
       </c>
@@ -39724,8 +40642,14 @@
         <v>0</v>
       </c>
       <c r="I1168" t="inlineStr"/>
-      <c r="J1168" t="inlineStr"/>
-      <c r="K1168" t="inlineStr"/>
+      <c r="J1168" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1168" t="n">
         <v>1</v>
       </c>
@@ -39757,8 +40681,14 @@
         <v>0</v>
       </c>
       <c r="I1169" t="inlineStr"/>
-      <c r="J1169" t="inlineStr"/>
-      <c r="K1169" t="inlineStr"/>
+      <c r="J1169" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1169" t="n">
         <v>1</v>
       </c>
@@ -39790,8 +40720,14 @@
         <v>0</v>
       </c>
       <c r="I1170" t="inlineStr"/>
-      <c r="J1170" t="inlineStr"/>
-      <c r="K1170" t="inlineStr"/>
+      <c r="J1170" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1170" t="n">
         <v>1</v>
       </c>
@@ -39823,8 +40759,14 @@
         <v>0</v>
       </c>
       <c r="I1171" t="inlineStr"/>
-      <c r="J1171" t="inlineStr"/>
-      <c r="K1171" t="inlineStr"/>
+      <c r="J1171" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1171" t="n">
         <v>1</v>
       </c>
@@ -39856,8 +40798,14 @@
         <v>0</v>
       </c>
       <c r="I1172" t="inlineStr"/>
-      <c r="J1172" t="inlineStr"/>
-      <c r="K1172" t="inlineStr"/>
+      <c r="J1172" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1172" t="n">
         <v>1</v>
       </c>
@@ -39889,8 +40837,14 @@
         <v>0</v>
       </c>
       <c r="I1173" t="inlineStr"/>
-      <c r="J1173" t="inlineStr"/>
-      <c r="K1173" t="inlineStr"/>
+      <c r="J1173" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1173" t="n">
         <v>1</v>
       </c>
@@ -39922,8 +40876,14 @@
         <v>0</v>
       </c>
       <c r="I1174" t="inlineStr"/>
-      <c r="J1174" t="inlineStr"/>
-      <c r="K1174" t="inlineStr"/>
+      <c r="J1174" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1174" t="n">
         <v>1</v>
       </c>
@@ -39955,8 +40915,14 @@
         <v>0</v>
       </c>
       <c r="I1175" t="inlineStr"/>
-      <c r="J1175" t="inlineStr"/>
-      <c r="K1175" t="inlineStr"/>
+      <c r="J1175" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1175" t="n">
         <v>1</v>
       </c>
@@ -39988,8 +40954,14 @@
         <v>0</v>
       </c>
       <c r="I1176" t="inlineStr"/>
-      <c r="J1176" t="inlineStr"/>
-      <c r="K1176" t="inlineStr"/>
+      <c r="J1176" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1176" t="n">
         <v>1</v>
       </c>
@@ -40021,8 +40993,14 @@
         <v>0</v>
       </c>
       <c r="I1177" t="inlineStr"/>
-      <c r="J1177" t="inlineStr"/>
-      <c r="K1177" t="inlineStr"/>
+      <c r="J1177" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1177" t="n">
         <v>1</v>
       </c>
@@ -40054,8 +41032,14 @@
         <v>0</v>
       </c>
       <c r="I1178" t="inlineStr"/>
-      <c r="J1178" t="inlineStr"/>
-      <c r="K1178" t="inlineStr"/>
+      <c r="J1178" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1178" t="n">
         <v>1</v>
       </c>
@@ -40087,8 +41071,14 @@
         <v>0</v>
       </c>
       <c r="I1179" t="inlineStr"/>
-      <c r="J1179" t="inlineStr"/>
-      <c r="K1179" t="inlineStr"/>
+      <c r="J1179" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1179" t="n">
         <v>1</v>
       </c>
@@ -40120,14 +41110,20 @@
         <v>0</v>
       </c>
       <c r="I1180" t="inlineStr"/>
-      <c r="J1180" t="inlineStr"/>
-      <c r="K1180" t="inlineStr"/>
+      <c r="J1180" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K1180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1180" t="n">
         <v>1</v>
       </c>
       <c r="M1180" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest IPX.xlsx
+++ b/BackTest/2020-01-11 BackTest IPX.xlsx
@@ -3421,7 +3421,7 @@
         <v>154659.1739</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>53825.71157829007</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>54488.66977829007</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>53596.91577829007</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>53665.09817829007</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>53665.09817829007</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>53681.79897829007</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>53681.79897829007</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>53681.79897829007</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>53681.79897829007</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>54872.19577829007</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>54872.19577829007</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>54872.19577829007</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>55769.53677829007</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>56107.01587829007</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>53467.18917829007</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>54687.29527829007</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>52040.19187829007</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>62427.10827829007</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>62427.10827829007</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>60368.53447829007</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>70683.42377829007</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>119298.5463782901</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>119298.5463782901</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>117354.4821782901</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>117679.9612782901</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>122580.1315782901</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>122580.1315782901</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>122580.1315782901</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>109845.3693782901</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>109845.3693782901</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>111517.3061782901</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>110361.7947782901</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>111762.5178782901</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>131036.4840856451</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>135560.7835856451</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>136446.864785645</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>134906.980585645</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>134906.980585645</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>132783.623485645</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>132783.623485645</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>132783.623485645</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>131560.765985645</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>133079.549385645</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>131094.277285645</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>130668.083885645</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>132176.362985645</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>130976.977285645</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>130651.498185645</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>130651.498185645</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>131880.622785645</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>131543.143685645</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>133928.246485645</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>131742.277585645</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>133301.822885645</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>131213.999385645</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>131213.999385645</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>130563.041185645</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>130563.041185645</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>6949.62118564501</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>7275.10028564501</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>-18154.50783156401</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>-15615.20253156401</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -26224,7 +26224,7 @@
         <v>17469.16438564499</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26257,7 +26257,7 @@
         <v>17794.64348564499</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26290,7 +26290,7 @@
         <v>13868.17218564499</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26323,7 +26323,7 @@
         <v>12017.73648564499</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26356,7 +26356,7 @@
         <v>12017.73648564499</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26389,7 +26389,7 @@
         <v>13777.76308564499</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26422,7 +26422,7 @@
         <v>12271.19638564499</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26455,7 +26455,7 @@
         <v>11069.50838564499</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26488,7 +26488,7 @@
         <v>11069.50838564499</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26521,7 +26521,7 @@
         <v>11069.50838564499</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26554,7 +26554,7 @@
         <v>-13969.27421435501</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26587,7 +26587,7 @@
         <v>-12218.70561435501</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26950,7 +26950,7 @@
         <v>-12325.70571435501</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -26983,7 +26983,7 @@
         <v>-11443.17481435501</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27016,7 +27016,7 @@
         <v>-10466.73751435501</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27049,7 +27049,7 @@
         <v>-3381.871014355012</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27082,7 +27082,7 @@
         <v>-5009.266514355013</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27115,7 +27115,7 @@
         <v>-5009.266514355013</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27148,7 +27148,7 @@
         <v>-5009.266514355013</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27181,7 +27181,7 @@
         <v>-12223.04681435501</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -29920,14 +29920,10 @@
         <v>-120196.128114355</v>
       </c>
       <c r="H895" t="n">
-        <v>1</v>
-      </c>
-      <c r="I895" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="J895" t="n">
-        <v>43.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I895" t="inlineStr"/>
+      <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr"/>
       <c r="L895" t="n">
         <v>1</v>
@@ -29957,1677 +29953,1417 @@
         <v>-118600.832714355</v>
       </c>
       <c r="H896" t="n">
-        <v>1</v>
-      </c>
-      <c r="I896" t="n">
+        <v>0</v>
+      </c>
+      <c r="I896" t="inlineStr"/>
+      <c r="J896" t="inlineStr"/>
+      <c r="K896" t="inlineStr"/>
+      <c r="L896" t="n">
+        <v>1</v>
+      </c>
+      <c r="M896" t="inlineStr"/>
+    </row>
+    <row r="897">
+      <c r="A897" s="1" t="n">
+        <v>895</v>
+      </c>
+      <c r="B897" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="C897" t="n">
         <v>43.5</v>
       </c>
-      <c r="J896" t="n">
+      <c r="D897" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="E897" t="n">
         <v>43.5</v>
       </c>
-      <c r="K896" t="inlineStr">
+      <c r="F897" t="n">
+        <v>1542.4669</v>
+      </c>
+      <c r="G897" t="n">
+        <v>-120143.299614355</v>
+      </c>
+      <c r="H897" t="n">
+        <v>0</v>
+      </c>
+      <c r="I897" t="inlineStr"/>
+      <c r="J897" t="inlineStr"/>
+      <c r="K897" t="inlineStr"/>
+      <c r="L897" t="n">
+        <v>1</v>
+      </c>
+      <c r="M897" t="inlineStr"/>
+    </row>
+    <row r="898">
+      <c r="A898" s="1" t="n">
+        <v>896</v>
+      </c>
+      <c r="B898" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="C898" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="D898" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="E898" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="F898" t="n">
+        <v>1766.63</v>
+      </c>
+      <c r="G898" t="n">
+        <v>-120143.299614355</v>
+      </c>
+      <c r="H898" t="n">
+        <v>0</v>
+      </c>
+      <c r="I898" t="inlineStr"/>
+      <c r="J898" t="inlineStr"/>
+      <c r="K898" t="inlineStr"/>
+      <c r="L898" t="n">
+        <v>1</v>
+      </c>
+      <c r="M898" t="inlineStr"/>
+    </row>
+    <row r="899">
+      <c r="A899" s="1" t="n">
+        <v>897</v>
+      </c>
+      <c r="B899" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="C899" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="D899" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="E899" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="F899" t="n">
+        <v>2098.6983</v>
+      </c>
+      <c r="G899" t="n">
+        <v>-120143.299614355</v>
+      </c>
+      <c r="H899" t="n">
+        <v>0</v>
+      </c>
+      <c r="I899" t="inlineStr"/>
+      <c r="J899" t="inlineStr"/>
+      <c r="K899" t="inlineStr"/>
+      <c r="L899" t="n">
+        <v>1</v>
+      </c>
+      <c r="M899" t="inlineStr"/>
+    </row>
+    <row r="900">
+      <c r="A900" s="1" t="n">
+        <v>898</v>
+      </c>
+      <c r="B900" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="C900" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="D900" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="E900" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="F900" t="n">
+        <v>1186.4236</v>
+      </c>
+      <c r="G900" t="n">
+        <v>-121329.723214355</v>
+      </c>
+      <c r="H900" t="n">
+        <v>0</v>
+      </c>
+      <c r="I900" t="inlineStr"/>
+      <c r="J900" t="inlineStr"/>
+      <c r="K900" t="inlineStr"/>
+      <c r="L900" t="n">
+        <v>1</v>
+      </c>
+      <c r="M900" t="inlineStr"/>
+    </row>
+    <row r="901">
+      <c r="A901" s="1" t="n">
+        <v>899</v>
+      </c>
+      <c r="B901" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="C901" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="D901" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="E901" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="F901" t="n">
+        <v>1859.7411</v>
+      </c>
+      <c r="G901" t="n">
+        <v>-121329.723214355</v>
+      </c>
+      <c r="H901" t="n">
+        <v>0</v>
+      </c>
+      <c r="I901" t="inlineStr"/>
+      <c r="J901" t="inlineStr"/>
+      <c r="K901" t="inlineStr"/>
+      <c r="L901" t="n">
+        <v>1</v>
+      </c>
+      <c r="M901" t="inlineStr"/>
+    </row>
+    <row r="902">
+      <c r="A902" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="B902" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="C902" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="D902" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="E902" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="F902" t="n">
+        <v>325.4791</v>
+      </c>
+      <c r="G902" t="n">
+        <v>-121329.723214355</v>
+      </c>
+      <c r="H902" t="n">
+        <v>0</v>
+      </c>
+      <c r="I902" t="inlineStr"/>
+      <c r="J902" t="inlineStr"/>
+      <c r="K902" t="inlineStr"/>
+      <c r="L902" t="n">
+        <v>1</v>
+      </c>
+      <c r="M902" t="inlineStr"/>
+    </row>
+    <row r="903">
+      <c r="A903" s="1" t="n">
+        <v>901</v>
+      </c>
+      <c r="B903" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="C903" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="D903" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="E903" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="F903" t="n">
+        <v>879.1229</v>
+      </c>
+      <c r="G903" t="n">
+        <v>-120450.600314355</v>
+      </c>
+      <c r="H903" t="n">
+        <v>0</v>
+      </c>
+      <c r="I903" t="inlineStr"/>
+      <c r="J903" t="inlineStr"/>
+      <c r="K903" t="inlineStr"/>
+      <c r="L903" t="n">
+        <v>1</v>
+      </c>
+      <c r="M903" t="inlineStr"/>
+    </row>
+    <row r="904">
+      <c r="A904" s="1" t="n">
+        <v>902</v>
+      </c>
+      <c r="B904" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="C904" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="D904" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="E904" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="F904" t="n">
+        <v>650.9582</v>
+      </c>
+      <c r="G904" t="n">
+        <v>-121101.558514355</v>
+      </c>
+      <c r="H904" t="n">
+        <v>0</v>
+      </c>
+      <c r="I904" t="inlineStr"/>
+      <c r="J904" t="inlineStr"/>
+      <c r="K904" t="inlineStr"/>
+      <c r="L904" t="n">
+        <v>1</v>
+      </c>
+      <c r="M904" t="inlineStr"/>
+    </row>
+    <row r="905">
+      <c r="A905" s="1" t="n">
+        <v>903</v>
+      </c>
+      <c r="B905" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="C905" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="D905" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="E905" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="F905" t="n">
+        <v>325.4791</v>
+      </c>
+      <c r="G905" t="n">
+        <v>-121427.037614355</v>
+      </c>
+      <c r="H905" t="n">
+        <v>0</v>
+      </c>
+      <c r="I905" t="inlineStr"/>
+      <c r="J905" t="inlineStr"/>
+      <c r="K905" t="inlineStr"/>
+      <c r="L905" t="n">
+        <v>1</v>
+      </c>
+      <c r="M905" t="inlineStr"/>
+    </row>
+    <row r="906">
+      <c r="A906" s="1" t="n">
+        <v>904</v>
+      </c>
+      <c r="B906" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="C906" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="D906" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="E906" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="F906" t="n">
+        <v>976.4373000000001</v>
+      </c>
+      <c r="G906" t="n">
+        <v>-120450.600314355</v>
+      </c>
+      <c r="H906" t="n">
+        <v>0</v>
+      </c>
+      <c r="I906" t="inlineStr"/>
+      <c r="J906" t="inlineStr"/>
+      <c r="K906" t="inlineStr"/>
+      <c r="L906" t="n">
+        <v>1</v>
+      </c>
+      <c r="M906" t="inlineStr"/>
+    </row>
+    <row r="907">
+      <c r="A907" s="1" t="n">
+        <v>905</v>
+      </c>
+      <c r="B907" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="C907" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="D907" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="E907" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="F907" t="n">
+        <v>1756.0104</v>
+      </c>
+      <c r="G907" t="n">
+        <v>-118694.589914355</v>
+      </c>
+      <c r="H907" t="n">
+        <v>0</v>
+      </c>
+      <c r="I907" t="inlineStr"/>
+      <c r="J907" t="inlineStr"/>
+      <c r="K907" t="inlineStr"/>
+      <c r="L907" t="n">
+        <v>1</v>
+      </c>
+      <c r="M907" t="inlineStr"/>
+    </row>
+    <row r="908">
+      <c r="A908" s="1" t="n">
+        <v>906</v>
+      </c>
+      <c r="B908" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="C908" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="D908" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="E908" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="F908" t="n">
+        <v>864.6301999999999</v>
+      </c>
+      <c r="G908" t="n">
+        <v>-119559.220114355</v>
+      </c>
+      <c r="H908" t="n">
+        <v>0</v>
+      </c>
+      <c r="I908" t="inlineStr"/>
+      <c r="J908" t="inlineStr"/>
+      <c r="K908" t="inlineStr"/>
+      <c r="L908" t="n">
+        <v>1</v>
+      </c>
+      <c r="M908" t="inlineStr"/>
+    </row>
+    <row r="909">
+      <c r="A909" s="1" t="n">
+        <v>907</v>
+      </c>
+      <c r="B909" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="C909" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="D909" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="E909" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="F909" t="n">
+        <v>1788.3635</v>
+      </c>
+      <c r="G909" t="n">
+        <v>-119559.220114355</v>
+      </c>
+      <c r="H909" t="n">
+        <v>0</v>
+      </c>
+      <c r="I909" t="inlineStr"/>
+      <c r="J909" t="inlineStr"/>
+      <c r="K909" t="inlineStr"/>
+      <c r="L909" t="n">
+        <v>1</v>
+      </c>
+      <c r="M909" t="inlineStr"/>
+    </row>
+    <row r="910">
+      <c r="A910" s="1" t="n">
+        <v>908</v>
+      </c>
+      <c r="B910" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="C910" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="D910" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="E910" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="F910" t="n">
+        <v>2422.7214</v>
+      </c>
+      <c r="G910" t="n">
+        <v>-121981.941514355</v>
+      </c>
+      <c r="H910" t="n">
+        <v>0</v>
+      </c>
+      <c r="I910" t="inlineStr"/>
+      <c r="J910" t="inlineStr"/>
+      <c r="K910" t="inlineStr"/>
+      <c r="L910" t="n">
+        <v>1</v>
+      </c>
+      <c r="M910" t="inlineStr"/>
+    </row>
+    <row r="911">
+      <c r="A911" s="1" t="n">
+        <v>909</v>
+      </c>
+      <c r="B911" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="C911" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="D911" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="E911" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="F911" t="n">
+        <v>325.4791</v>
+      </c>
+      <c r="G911" t="n">
+        <v>-121656.462414355</v>
+      </c>
+      <c r="H911" t="n">
+        <v>0</v>
+      </c>
+      <c r="I911" t="inlineStr"/>
+      <c r="J911" t="inlineStr"/>
+      <c r="K911" t="inlineStr"/>
+      <c r="L911" t="n">
+        <v>1</v>
+      </c>
+      <c r="M911" t="inlineStr"/>
+    </row>
+    <row r="912">
+      <c r="A912" s="1" t="n">
+        <v>910</v>
+      </c>
+      <c r="B912" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="C912" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="D912" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="E912" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="F912" t="n">
+        <v>976.4373000000001</v>
+      </c>
+      <c r="G912" t="n">
+        <v>-122632.899714355</v>
+      </c>
+      <c r="H912" t="n">
+        <v>0</v>
+      </c>
+      <c r="I912" t="inlineStr"/>
+      <c r="J912" t="inlineStr"/>
+      <c r="K912" t="inlineStr"/>
+      <c r="L912" t="n">
+        <v>1</v>
+      </c>
+      <c r="M912" t="inlineStr"/>
+    </row>
+    <row r="913">
+      <c r="A913" s="1" t="n">
+        <v>911</v>
+      </c>
+      <c r="B913" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="C913" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="D913" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="E913" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="F913" t="n">
+        <v>325.4791</v>
+      </c>
+      <c r="G913" t="n">
+        <v>-122307.420614355</v>
+      </c>
+      <c r="H913" t="n">
+        <v>0</v>
+      </c>
+      <c r="I913" t="inlineStr"/>
+      <c r="J913" t="inlineStr"/>
+      <c r="K913" t="inlineStr"/>
+      <c r="L913" t="n">
+        <v>1</v>
+      </c>
+      <c r="M913" t="inlineStr"/>
+    </row>
+    <row r="914">
+      <c r="A914" s="1" t="n">
+        <v>912</v>
+      </c>
+      <c r="B914" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="C914" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="D914" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="E914" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="F914" t="n">
+        <v>865.0725</v>
+      </c>
+      <c r="G914" t="n">
+        <v>-123172.493114355</v>
+      </c>
+      <c r="H914" t="n">
+        <v>0</v>
+      </c>
+      <c r="I914" t="inlineStr"/>
+      <c r="J914" t="inlineStr"/>
+      <c r="K914" t="inlineStr"/>
+      <c r="L914" t="n">
+        <v>1</v>
+      </c>
+      <c r="M914" t="inlineStr"/>
+    </row>
+    <row r="915">
+      <c r="A915" s="1" t="n">
+        <v>913</v>
+      </c>
+      <c r="B915" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="C915" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="D915" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="E915" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="F915" t="n">
+        <v>1773.3339</v>
+      </c>
+      <c r="G915" t="n">
+        <v>-124945.827014355</v>
+      </c>
+      <c r="H915" t="n">
+        <v>0</v>
+      </c>
+      <c r="I915" t="inlineStr"/>
+      <c r="J915" t="inlineStr"/>
+      <c r="K915" t="inlineStr"/>
+      <c r="L915" t="n">
+        <v>1</v>
+      </c>
+      <c r="M915" t="inlineStr"/>
+    </row>
+    <row r="916">
+      <c r="A916" s="1" t="n">
+        <v>914</v>
+      </c>
+      <c r="B916" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="C916" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="D916" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="E916" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="F916" t="n">
+        <v>650.9582</v>
+      </c>
+      <c r="G916" t="n">
+        <v>-124294.868814355</v>
+      </c>
+      <c r="H916" t="n">
+        <v>0</v>
+      </c>
+      <c r="I916" t="inlineStr"/>
+      <c r="J916" t="inlineStr"/>
+      <c r="K916" t="inlineStr"/>
+      <c r="L916" t="n">
+        <v>1</v>
+      </c>
+      <c r="M916" t="inlineStr"/>
+    </row>
+    <row r="917">
+      <c r="A917" s="1" t="n">
+        <v>915</v>
+      </c>
+      <c r="B917" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="C917" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="D917" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="E917" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="F917" t="n">
+        <v>876.9869</v>
+      </c>
+      <c r="G917" t="n">
+        <v>-125171.855714355</v>
+      </c>
+      <c r="H917" t="n">
+        <v>0</v>
+      </c>
+      <c r="I917" t="inlineStr"/>
+      <c r="J917" t="inlineStr"/>
+      <c r="K917" t="inlineStr"/>
+      <c r="L917" t="n">
+        <v>1</v>
+      </c>
+      <c r="M917" t="inlineStr"/>
+    </row>
+    <row r="918">
+      <c r="A918" s="1" t="n">
+        <v>916</v>
+      </c>
+      <c r="B918" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="C918" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="D918" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="E918" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="F918" t="n">
+        <v>2094.0128</v>
+      </c>
+      <c r="G918" t="n">
+        <v>-123077.842914355</v>
+      </c>
+      <c r="H918" t="n">
+        <v>0</v>
+      </c>
+      <c r="I918" t="inlineStr"/>
+      <c r="J918" t="inlineStr"/>
+      <c r="K918" t="inlineStr"/>
+      <c r="L918" t="n">
+        <v>1</v>
+      </c>
+      <c r="M918" t="inlineStr"/>
+    </row>
+    <row r="919">
+      <c r="A919" s="1" t="n">
+        <v>917</v>
+      </c>
+      <c r="B919" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="C919" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="D919" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="E919" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="F919" t="n">
+        <v>1748.2008</v>
+      </c>
+      <c r="G919" t="n">
+        <v>-124826.043714355</v>
+      </c>
+      <c r="H919" t="n">
+        <v>0</v>
+      </c>
+      <c r="I919" t="inlineStr"/>
+      <c r="J919" t="inlineStr"/>
+      <c r="K919" t="inlineStr"/>
+      <c r="L919" t="n">
+        <v>1</v>
+      </c>
+      <c r="M919" t="inlineStr"/>
+    </row>
+    <row r="920">
+      <c r="A920" s="1" t="n">
+        <v>918</v>
+      </c>
+      <c r="B920" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="C920" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="D920" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="E920" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="F920" t="n">
+        <v>1736.0753</v>
+      </c>
+      <c r="G920" t="n">
+        <v>-123089.968414355</v>
+      </c>
+      <c r="H920" t="n">
+        <v>0</v>
+      </c>
+      <c r="I920" t="inlineStr"/>
+      <c r="J920" t="inlineStr"/>
+      <c r="K920" t="inlineStr"/>
+      <c r="L920" t="n">
+        <v>1</v>
+      </c>
+      <c r="M920" t="inlineStr"/>
+    </row>
+    <row r="921">
+      <c r="A921" s="1" t="n">
+        <v>919</v>
+      </c>
+      <c r="B921" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="C921" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="D921" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="E921" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="F921" t="n">
+        <v>1787.3313</v>
+      </c>
+      <c r="G921" t="n">
+        <v>-121302.637114355</v>
+      </c>
+      <c r="H921" t="n">
+        <v>0</v>
+      </c>
+      <c r="I921" t="inlineStr"/>
+      <c r="J921" t="inlineStr"/>
+      <c r="K921" t="inlineStr"/>
+      <c r="L921" t="n">
+        <v>1</v>
+      </c>
+      <c r="M921" t="inlineStr"/>
+    </row>
+    <row r="922">
+      <c r="A922" s="1" t="n">
+        <v>920</v>
+      </c>
+      <c r="B922" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="C922" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="D922" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="E922" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="F922" t="n">
+        <v>424.4791</v>
+      </c>
+      <c r="G922" t="n">
+        <v>-121302.637114355</v>
+      </c>
+      <c r="H922" t="n">
+        <v>0</v>
+      </c>
+      <c r="I922" t="inlineStr"/>
+      <c r="J922" t="inlineStr"/>
+      <c r="K922" t="inlineStr"/>
+      <c r="L922" t="n">
+        <v>1</v>
+      </c>
+      <c r="M922" t="inlineStr"/>
+    </row>
+    <row r="923">
+      <c r="A923" s="1" t="n">
+        <v>921</v>
+      </c>
+      <c r="B923" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="C923" t="n">
+        <v>43.69</v>
+      </c>
+      <c r="D923" t="n">
+        <v>43.69</v>
+      </c>
+      <c r="E923" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="F923" t="n">
+        <v>1802.618</v>
+      </c>
+      <c r="G923" t="n">
+        <v>-119500.019114355</v>
+      </c>
+      <c r="H923" t="n">
+        <v>0</v>
+      </c>
+      <c r="I923" t="inlineStr"/>
+      <c r="J923" t="inlineStr"/>
+      <c r="K923" t="inlineStr"/>
+      <c r="L923" t="n">
+        <v>1</v>
+      </c>
+      <c r="M923" t="inlineStr"/>
+    </row>
+    <row r="924">
+      <c r="A924" s="1" t="n">
+        <v>922</v>
+      </c>
+      <c r="B924" t="n">
+        <v>43.69</v>
+      </c>
+      <c r="C924" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="D924" t="n">
+        <v>43.69</v>
+      </c>
+      <c r="E924" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="F924" t="n">
+        <v>2206.385</v>
+      </c>
+      <c r="G924" t="n">
+        <v>-121706.404114355</v>
+      </c>
+      <c r="H924" t="n">
+        <v>0</v>
+      </c>
+      <c r="I924" t="inlineStr"/>
+      <c r="J924" t="inlineStr"/>
+      <c r="K924" t="inlineStr"/>
+      <c r="L924" t="n">
+        <v>1</v>
+      </c>
+      <c r="M924" t="inlineStr"/>
+    </row>
+    <row r="925">
+      <c r="A925" s="1" t="n">
+        <v>923</v>
+      </c>
+      <c r="B925" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="C925" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="D925" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="E925" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="F925" t="n">
+        <v>325.4791</v>
+      </c>
+      <c r="G925" t="n">
+        <v>-121706.404114355</v>
+      </c>
+      <c r="H925" t="n">
+        <v>0</v>
+      </c>
+      <c r="I925" t="inlineStr"/>
+      <c r="J925" t="inlineStr"/>
+      <c r="K925" t="inlineStr"/>
+      <c r="L925" t="n">
+        <v>1</v>
+      </c>
+      <c r="M925" t="inlineStr"/>
+    </row>
+    <row r="926">
+      <c r="A926" s="1" t="n">
+        <v>924</v>
+      </c>
+      <c r="B926" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="C926" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="D926" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="E926" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="F926" t="n">
+        <v>1772.5449</v>
+      </c>
+      <c r="G926" t="n">
+        <v>-119933.859214355</v>
+      </c>
+      <c r="H926" t="n">
+        <v>0</v>
+      </c>
+      <c r="I926" t="inlineStr"/>
+      <c r="J926" t="inlineStr"/>
+      <c r="K926" t="inlineStr"/>
+      <c r="L926" t="n">
+        <v>1</v>
+      </c>
+      <c r="M926" t="inlineStr"/>
+    </row>
+    <row r="927">
+      <c r="A927" s="1" t="n">
+        <v>925</v>
+      </c>
+      <c r="B927" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="C927" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="D927" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="E927" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="F927" t="n">
+        <v>1529.7492</v>
+      </c>
+      <c r="G927" t="n">
+        <v>-121463.608414355</v>
+      </c>
+      <c r="H927" t="n">
+        <v>0</v>
+      </c>
+      <c r="I927" t="inlineStr"/>
+      <c r="J927" t="inlineStr"/>
+      <c r="K927" t="inlineStr"/>
+      <c r="L927" t="n">
+        <v>1</v>
+      </c>
+      <c r="M927" t="inlineStr"/>
+    </row>
+    <row r="928">
+      <c r="A928" s="1" t="n">
+        <v>926</v>
+      </c>
+      <c r="B928" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="C928" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="D928" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="E928" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="F928" t="n">
+        <v>1539.8247</v>
+      </c>
+      <c r="G928" t="n">
+        <v>-119923.783714355</v>
+      </c>
+      <c r="H928" t="n">
+        <v>0</v>
+      </c>
+      <c r="I928" t="inlineStr"/>
+      <c r="J928" t="inlineStr"/>
+      <c r="K928" t="inlineStr"/>
+      <c r="L928" t="n">
+        <v>1</v>
+      </c>
+      <c r="M928" t="inlineStr"/>
+    </row>
+    <row r="929">
+      <c r="A929" s="1" t="n">
+        <v>927</v>
+      </c>
+      <c r="B929" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="C929" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="D929" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="E929" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="F929" t="n">
+        <v>325.4791</v>
+      </c>
+      <c r="G929" t="n">
+        <v>-119923.783714355</v>
+      </c>
+      <c r="H929" t="n">
+        <v>0</v>
+      </c>
+      <c r="I929" t="inlineStr"/>
+      <c r="J929" t="inlineStr"/>
+      <c r="K929" t="inlineStr"/>
+      <c r="L929" t="n">
+        <v>1</v>
+      </c>
+      <c r="M929" t="inlineStr"/>
+    </row>
+    <row r="930">
+      <c r="A930" s="1" t="n">
+        <v>928</v>
+      </c>
+      <c r="B930" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="C930" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="D930" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="E930" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="F930" t="n">
+        <v>1216.927</v>
+      </c>
+      <c r="G930" t="n">
+        <v>-121140.710714355</v>
+      </c>
+      <c r="H930" t="n">
+        <v>0</v>
+      </c>
+      <c r="I930" t="inlineStr"/>
+      <c r="J930" t="inlineStr"/>
+      <c r="K930" t="inlineStr"/>
+      <c r="L930" t="n">
+        <v>1</v>
+      </c>
+      <c r="M930" t="inlineStr"/>
+    </row>
+    <row r="931">
+      <c r="A931" s="1" t="n">
+        <v>929</v>
+      </c>
+      <c r="B931" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="C931" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="D931" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="E931" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="F931" t="n">
+        <v>976.4373000000001</v>
+      </c>
+      <c r="G931" t="n">
+        <v>-121140.710714355</v>
+      </c>
+      <c r="H931" t="n">
+        <v>0</v>
+      </c>
+      <c r="I931" t="inlineStr"/>
+      <c r="J931" t="inlineStr"/>
+      <c r="K931" t="inlineStr"/>
+      <c r="L931" t="n">
+        <v>1</v>
+      </c>
+      <c r="M931" t="inlineStr"/>
+    </row>
+    <row r="932">
+      <c r="A932" s="1" t="n">
+        <v>930</v>
+      </c>
+      <c r="B932" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="C932" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="D932" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="E932" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="F932" t="n">
+        <v>1200.9018</v>
+      </c>
+      <c r="G932" t="n">
+        <v>-121140.710714355</v>
+      </c>
+      <c r="H932" t="n">
+        <v>0</v>
+      </c>
+      <c r="I932" t="inlineStr"/>
+      <c r="J932" t="inlineStr"/>
+      <c r="K932" t="inlineStr"/>
+      <c r="L932" t="n">
+        <v>1</v>
+      </c>
+      <c r="M932" t="inlineStr"/>
+    </row>
+    <row r="933">
+      <c r="A933" s="1" t="n">
+        <v>931</v>
+      </c>
+      <c r="B933" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="C933" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="D933" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="E933" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="F933" t="n">
+        <v>2095.6367</v>
+      </c>
+      <c r="G933" t="n">
+        <v>-121140.710714355</v>
+      </c>
+      <c r="H933" t="n">
+        <v>0</v>
+      </c>
+      <c r="I933" t="inlineStr"/>
+      <c r="J933" t="inlineStr"/>
+      <c r="K933" t="inlineStr"/>
+      <c r="L933" t="n">
+        <v>1</v>
+      </c>
+      <c r="M933" t="inlineStr"/>
+    </row>
+    <row r="934">
+      <c r="A934" s="1" t="n">
+        <v>932</v>
+      </c>
+      <c r="B934" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="C934" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="D934" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="E934" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="F934" t="n">
+        <v>325.4791</v>
+      </c>
+      <c r="G934" t="n">
+        <v>-121140.710714355</v>
+      </c>
+      <c r="H934" t="n">
+        <v>0</v>
+      </c>
+      <c r="I934" t="inlineStr"/>
+      <c r="J934" t="inlineStr"/>
+      <c r="K934" t="inlineStr"/>
+      <c r="L934" t="n">
+        <v>1</v>
+      </c>
+      <c r="M934" t="inlineStr"/>
+    </row>
+    <row r="935">
+      <c r="A935" s="1" t="n">
+        <v>933</v>
+      </c>
+      <c r="B935" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="C935" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="D935" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="E935" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="F935" t="n">
+        <v>884.5196999999999</v>
+      </c>
+      <c r="G935" t="n">
+        <v>-121140.710714355</v>
+      </c>
+      <c r="H935" t="n">
+        <v>0</v>
+      </c>
+      <c r="I935" t="inlineStr"/>
+      <c r="J935" t="inlineStr"/>
+      <c r="K935" t="inlineStr"/>
+      <c r="L935" t="n">
+        <v>1</v>
+      </c>
+      <c r="M935" t="inlineStr"/>
+    </row>
+    <row r="936">
+      <c r="A936" s="1" t="n">
+        <v>934</v>
+      </c>
+      <c r="B936" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="C936" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="D936" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="E936" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="F936" t="n">
+        <v>872.6165</v>
+      </c>
+      <c r="G936" t="n">
+        <v>-121140.710714355</v>
+      </c>
+      <c r="H936" t="n">
+        <v>1</v>
+      </c>
+      <c r="I936" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="J936" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="K936" t="inlineStr"/>
+      <c r="L936" t="n">
+        <v>1</v>
+      </c>
+      <c r="M936" t="inlineStr"/>
+    </row>
+    <row r="937">
+      <c r="A937" s="1" t="n">
+        <v>935</v>
+      </c>
+      <c r="B937" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="C937" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="D937" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="E937" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="F937" t="n">
+        <v>650.9582</v>
+      </c>
+      <c r="G937" t="n">
+        <v>-120489.752514355</v>
+      </c>
+      <c r="H937" t="n">
+        <v>1</v>
+      </c>
+      <c r="I937" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="J937" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="K937" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L896" t="n">
-        <v>1</v>
-      </c>
-      <c r="M896" t="inlineStr"/>
-    </row>
-    <row r="897">
-      <c r="A897" s="1" t="n">
-        <v>895</v>
-      </c>
-      <c r="B897" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="C897" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="D897" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="E897" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="F897" t="n">
-        <v>1542.4669</v>
-      </c>
-      <c r="G897" t="n">
-        <v>-120143.299614355</v>
-      </c>
-      <c r="H897" t="n">
-        <v>1</v>
-      </c>
-      <c r="I897" t="n">
+      <c r="L937" t="n">
+        <v>1</v>
+      </c>
+      <c r="M937" t="inlineStr"/>
+    </row>
+    <row r="938">
+      <c r="A938" s="1" t="n">
+        <v>936</v>
+      </c>
+      <c r="B938" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="C938" t="n">
         <v>43.6</v>
       </c>
-      <c r="J897" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K897" t="inlineStr">
+      <c r="D938" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="E938" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="F938" t="n">
+        <v>1738.9145</v>
+      </c>
+      <c r="G938" t="n">
+        <v>-120489.752514355</v>
+      </c>
+      <c r="H938" t="n">
+        <v>1</v>
+      </c>
+      <c r="I938" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J938" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="K938" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L897" t="n">
-        <v>1</v>
-      </c>
-      <c r="M897" t="inlineStr"/>
-    </row>
-    <row r="898">
-      <c r="A898" s="1" t="n">
-        <v>896</v>
-      </c>
-      <c r="B898" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="C898" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="D898" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="E898" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="F898" t="n">
-        <v>1766.63</v>
-      </c>
-      <c r="G898" t="n">
-        <v>-120143.299614355</v>
-      </c>
-      <c r="H898" t="n">
-        <v>1</v>
-      </c>
-      <c r="I898" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="J898" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L898" t="n">
-        <v>1</v>
-      </c>
-      <c r="M898" t="inlineStr"/>
-    </row>
-    <row r="899">
-      <c r="A899" s="1" t="n">
-        <v>897</v>
-      </c>
-      <c r="B899" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="C899" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="D899" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="E899" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="F899" t="n">
-        <v>2098.6983</v>
-      </c>
-      <c r="G899" t="n">
-        <v>-120143.299614355</v>
-      </c>
-      <c r="H899" t="n">
-        <v>1</v>
-      </c>
-      <c r="I899" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="J899" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L899" t="n">
-        <v>1</v>
-      </c>
-      <c r="M899" t="inlineStr"/>
-    </row>
-    <row r="900">
-      <c r="A900" s="1" t="n">
-        <v>898</v>
-      </c>
-      <c r="B900" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="C900" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="D900" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="E900" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="F900" t="n">
-        <v>1186.4236</v>
-      </c>
-      <c r="G900" t="n">
-        <v>-121329.723214355</v>
-      </c>
-      <c r="H900" t="n">
-        <v>1</v>
-      </c>
-      <c r="I900" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="J900" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L900" t="n">
-        <v>1</v>
-      </c>
-      <c r="M900" t="inlineStr"/>
-    </row>
-    <row r="901">
-      <c r="A901" s="1" t="n">
-        <v>899</v>
-      </c>
-      <c r="B901" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="C901" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="D901" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="E901" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="F901" t="n">
-        <v>1859.7411</v>
-      </c>
-      <c r="G901" t="n">
-        <v>-121329.723214355</v>
-      </c>
-      <c r="H901" t="n">
-        <v>1</v>
-      </c>
-      <c r="I901" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="J901" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L901" t="n">
-        <v>1</v>
-      </c>
-      <c r="M901" t="inlineStr"/>
-    </row>
-    <row r="902">
-      <c r="A902" s="1" t="n">
-        <v>900</v>
-      </c>
-      <c r="B902" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="C902" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="D902" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="E902" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="F902" t="n">
-        <v>325.4791</v>
-      </c>
-      <c r="G902" t="n">
-        <v>-121329.723214355</v>
-      </c>
-      <c r="H902" t="n">
-        <v>1</v>
-      </c>
-      <c r="I902" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="J902" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L902" t="n">
-        <v>1</v>
-      </c>
-      <c r="M902" t="inlineStr"/>
-    </row>
-    <row r="903">
-      <c r="A903" s="1" t="n">
-        <v>901</v>
-      </c>
-      <c r="B903" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="C903" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="D903" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="E903" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="F903" t="n">
-        <v>879.1229</v>
-      </c>
-      <c r="G903" t="n">
-        <v>-120450.600314355</v>
-      </c>
-      <c r="H903" t="n">
-        <v>1</v>
-      </c>
-      <c r="I903" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="J903" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L903" t="n">
-        <v>1</v>
-      </c>
-      <c r="M903" t="inlineStr"/>
-    </row>
-    <row r="904">
-      <c r="A904" s="1" t="n">
-        <v>902</v>
-      </c>
-      <c r="B904" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="C904" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="D904" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="E904" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="F904" t="n">
-        <v>650.9582</v>
-      </c>
-      <c r="G904" t="n">
-        <v>-121101.558514355</v>
-      </c>
-      <c r="H904" t="n">
-        <v>0</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
-      <c r="J904" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L904" t="n">
-        <v>1</v>
-      </c>
-      <c r="M904" t="inlineStr"/>
-    </row>
-    <row r="905">
-      <c r="A905" s="1" t="n">
-        <v>903</v>
-      </c>
-      <c r="B905" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="C905" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="D905" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="E905" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="F905" t="n">
-        <v>325.4791</v>
-      </c>
-      <c r="G905" t="n">
-        <v>-121427.037614355</v>
-      </c>
-      <c r="H905" t="n">
-        <v>1</v>
-      </c>
-      <c r="I905" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="J905" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L905" t="n">
-        <v>1</v>
-      </c>
-      <c r="M905" t="inlineStr"/>
-    </row>
-    <row r="906">
-      <c r="A906" s="1" t="n">
-        <v>904</v>
-      </c>
-      <c r="B906" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="C906" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="D906" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="E906" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="F906" t="n">
-        <v>976.4373000000001</v>
-      </c>
-      <c r="G906" t="n">
-        <v>-120450.600314355</v>
-      </c>
-      <c r="H906" t="n">
-        <v>1</v>
-      </c>
-      <c r="I906" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="J906" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L906" t="n">
-        <v>1</v>
-      </c>
-      <c r="M906" t="inlineStr"/>
-    </row>
-    <row r="907">
-      <c r="A907" s="1" t="n">
-        <v>905</v>
-      </c>
-      <c r="B907" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="C907" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="D907" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="E907" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="F907" t="n">
-        <v>1756.0104</v>
-      </c>
-      <c r="G907" t="n">
-        <v>-118694.589914355</v>
-      </c>
-      <c r="H907" t="n">
-        <v>0</v>
-      </c>
-      <c r="I907" t="inlineStr"/>
-      <c r="J907" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L907" t="n">
-        <v>1</v>
-      </c>
-      <c r="M907" t="inlineStr"/>
-    </row>
-    <row r="908">
-      <c r="A908" s="1" t="n">
-        <v>906</v>
-      </c>
-      <c r="B908" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="C908" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="D908" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="E908" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="F908" t="n">
-        <v>864.6301999999999</v>
-      </c>
-      <c r="G908" t="n">
-        <v>-119559.220114355</v>
-      </c>
-      <c r="H908" t="n">
-        <v>0</v>
-      </c>
-      <c r="I908" t="inlineStr"/>
-      <c r="J908" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L908" t="n">
-        <v>1</v>
-      </c>
-      <c r="M908" t="inlineStr"/>
-    </row>
-    <row r="909">
-      <c r="A909" s="1" t="n">
-        <v>907</v>
-      </c>
-      <c r="B909" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="C909" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="D909" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="E909" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="F909" t="n">
-        <v>1788.3635</v>
-      </c>
-      <c r="G909" t="n">
-        <v>-119559.220114355</v>
-      </c>
-      <c r="H909" t="n">
-        <v>0</v>
-      </c>
-      <c r="I909" t="inlineStr"/>
-      <c r="J909" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L909" t="n">
-        <v>1</v>
-      </c>
-      <c r="M909" t="inlineStr"/>
-    </row>
-    <row r="910">
-      <c r="A910" s="1" t="n">
-        <v>908</v>
-      </c>
-      <c r="B910" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="C910" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="D910" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="E910" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="F910" t="n">
-        <v>2422.7214</v>
-      </c>
-      <c r="G910" t="n">
-        <v>-121981.941514355</v>
-      </c>
-      <c r="H910" t="n">
-        <v>0</v>
-      </c>
-      <c r="I910" t="inlineStr"/>
-      <c r="J910" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L910" t="n">
-        <v>1</v>
-      </c>
-      <c r="M910" t="inlineStr"/>
-    </row>
-    <row r="911">
-      <c r="A911" s="1" t="n">
-        <v>909</v>
-      </c>
-      <c r="B911" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="C911" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="D911" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="E911" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="F911" t="n">
-        <v>325.4791</v>
-      </c>
-      <c r="G911" t="n">
-        <v>-121656.462414355</v>
-      </c>
-      <c r="H911" t="n">
-        <v>0</v>
-      </c>
-      <c r="I911" t="inlineStr"/>
-      <c r="J911" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L911" t="n">
-        <v>1</v>
-      </c>
-      <c r="M911" t="inlineStr"/>
-    </row>
-    <row r="912">
-      <c r="A912" s="1" t="n">
-        <v>910</v>
-      </c>
-      <c r="B912" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="C912" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="D912" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="E912" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="F912" t="n">
-        <v>976.4373000000001</v>
-      </c>
-      <c r="G912" t="n">
-        <v>-122632.899714355</v>
-      </c>
-      <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
-      <c r="J912" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L912" t="n">
-        <v>1</v>
-      </c>
-      <c r="M912" t="inlineStr"/>
-    </row>
-    <row r="913">
-      <c r="A913" s="1" t="n">
-        <v>911</v>
-      </c>
-      <c r="B913" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="C913" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="D913" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="E913" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="F913" t="n">
-        <v>325.4791</v>
-      </c>
-      <c r="G913" t="n">
-        <v>-122307.420614355</v>
-      </c>
-      <c r="H913" t="n">
-        <v>0</v>
-      </c>
-      <c r="I913" t="inlineStr"/>
-      <c r="J913" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L913" t="n">
-        <v>1</v>
-      </c>
-      <c r="M913" t="inlineStr"/>
-    </row>
-    <row r="914">
-      <c r="A914" s="1" t="n">
-        <v>912</v>
-      </c>
-      <c r="B914" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="C914" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="D914" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="E914" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="F914" t="n">
-        <v>865.0725</v>
-      </c>
-      <c r="G914" t="n">
-        <v>-123172.493114355</v>
-      </c>
-      <c r="H914" t="n">
-        <v>0</v>
-      </c>
-      <c r="I914" t="inlineStr"/>
-      <c r="J914" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L914" t="n">
-        <v>1</v>
-      </c>
-      <c r="M914" t="inlineStr"/>
-    </row>
-    <row r="915">
-      <c r="A915" s="1" t="n">
-        <v>913</v>
-      </c>
-      <c r="B915" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="C915" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="D915" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="E915" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="F915" t="n">
-        <v>1773.3339</v>
-      </c>
-      <c r="G915" t="n">
-        <v>-124945.827014355</v>
-      </c>
-      <c r="H915" t="n">
-        <v>0</v>
-      </c>
-      <c r="I915" t="inlineStr"/>
-      <c r="J915" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K915" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L915" t="n">
-        <v>1</v>
-      </c>
-      <c r="M915" t="inlineStr"/>
-    </row>
-    <row r="916">
-      <c r="A916" s="1" t="n">
-        <v>914</v>
-      </c>
-      <c r="B916" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="C916" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="D916" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="E916" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="F916" t="n">
-        <v>650.9582</v>
-      </c>
-      <c r="G916" t="n">
-        <v>-124294.868814355</v>
-      </c>
-      <c r="H916" t="n">
-        <v>0</v>
-      </c>
-      <c r="I916" t="inlineStr"/>
-      <c r="J916" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L916" t="n">
-        <v>1</v>
-      </c>
-      <c r="M916" t="inlineStr"/>
-    </row>
-    <row r="917">
-      <c r="A917" s="1" t="n">
-        <v>915</v>
-      </c>
-      <c r="B917" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="C917" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="D917" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="E917" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="F917" t="n">
-        <v>876.9869</v>
-      </c>
-      <c r="G917" t="n">
-        <v>-125171.855714355</v>
-      </c>
-      <c r="H917" t="n">
-        <v>0</v>
-      </c>
-      <c r="I917" t="inlineStr"/>
-      <c r="J917" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L917" t="n">
-        <v>1</v>
-      </c>
-      <c r="M917" t="inlineStr"/>
-    </row>
-    <row r="918">
-      <c r="A918" s="1" t="n">
-        <v>916</v>
-      </c>
-      <c r="B918" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="C918" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="D918" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="E918" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="F918" t="n">
-        <v>2094.0128</v>
-      </c>
-      <c r="G918" t="n">
-        <v>-123077.842914355</v>
-      </c>
-      <c r="H918" t="n">
-        <v>1</v>
-      </c>
-      <c r="I918" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="J918" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L918" t="n">
-        <v>1</v>
-      </c>
-      <c r="M918" t="inlineStr"/>
-    </row>
-    <row r="919">
-      <c r="A919" s="1" t="n">
-        <v>917</v>
-      </c>
-      <c r="B919" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="C919" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="D919" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="E919" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="F919" t="n">
-        <v>1748.2008</v>
-      </c>
-      <c r="G919" t="n">
-        <v>-124826.043714355</v>
-      </c>
-      <c r="H919" t="n">
-        <v>0</v>
-      </c>
-      <c r="I919" t="inlineStr"/>
-      <c r="J919" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L919" t="n">
-        <v>1</v>
-      </c>
-      <c r="M919" t="inlineStr"/>
-    </row>
-    <row r="920">
-      <c r="A920" s="1" t="n">
-        <v>918</v>
-      </c>
-      <c r="B920" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="C920" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="D920" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="E920" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="F920" t="n">
-        <v>1736.0753</v>
-      </c>
-      <c r="G920" t="n">
-        <v>-123089.968414355</v>
-      </c>
-      <c r="H920" t="n">
-        <v>0</v>
-      </c>
-      <c r="I920" t="inlineStr"/>
-      <c r="J920" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K920" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L920" t="n">
-        <v>1</v>
-      </c>
-      <c r="M920" t="inlineStr"/>
-    </row>
-    <row r="921">
-      <c r="A921" s="1" t="n">
-        <v>919</v>
-      </c>
-      <c r="B921" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="C921" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="D921" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="E921" t="n">
-        <v>43.49</v>
-      </c>
-      <c r="F921" t="n">
-        <v>1787.3313</v>
-      </c>
-      <c r="G921" t="n">
-        <v>-121302.637114355</v>
-      </c>
-      <c r="H921" t="n">
-        <v>0</v>
-      </c>
-      <c r="I921" t="inlineStr"/>
-      <c r="J921" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K921" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L921" t="n">
-        <v>1</v>
-      </c>
-      <c r="M921" t="inlineStr"/>
-    </row>
-    <row r="922">
-      <c r="A922" s="1" t="n">
-        <v>920</v>
-      </c>
-      <c r="B922" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="C922" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="D922" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="E922" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="F922" t="n">
-        <v>424.4791</v>
-      </c>
-      <c r="G922" t="n">
-        <v>-121302.637114355</v>
-      </c>
-      <c r="H922" t="n">
-        <v>0</v>
-      </c>
-      <c r="I922" t="inlineStr"/>
-      <c r="J922" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K922" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L922" t="n">
-        <v>1</v>
-      </c>
-      <c r="M922" t="inlineStr"/>
-    </row>
-    <row r="923">
-      <c r="A923" s="1" t="n">
-        <v>921</v>
-      </c>
-      <c r="B923" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="C923" t="n">
-        <v>43.69</v>
-      </c>
-      <c r="D923" t="n">
-        <v>43.69</v>
-      </c>
-      <c r="E923" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="F923" t="n">
-        <v>1802.618</v>
-      </c>
-      <c r="G923" t="n">
-        <v>-119500.019114355</v>
-      </c>
-      <c r="H923" t="n">
-        <v>0</v>
-      </c>
-      <c r="I923" t="inlineStr"/>
-      <c r="J923" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K923" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L923" t="n">
-        <v>1</v>
-      </c>
-      <c r="M923" t="inlineStr"/>
-    </row>
-    <row r="924">
-      <c r="A924" s="1" t="n">
-        <v>922</v>
-      </c>
-      <c r="B924" t="n">
-        <v>43.69</v>
-      </c>
-      <c r="C924" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="D924" t="n">
-        <v>43.69</v>
-      </c>
-      <c r="E924" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="F924" t="n">
-        <v>2206.385</v>
-      </c>
-      <c r="G924" t="n">
-        <v>-121706.404114355</v>
-      </c>
-      <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
-      <c r="J924" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K924" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L924" t="n">
-        <v>1</v>
-      </c>
-      <c r="M924" t="inlineStr"/>
-    </row>
-    <row r="925">
-      <c r="A925" s="1" t="n">
-        <v>923</v>
-      </c>
-      <c r="B925" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="C925" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="D925" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="E925" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="F925" t="n">
-        <v>325.4791</v>
-      </c>
-      <c r="G925" t="n">
-        <v>-121706.404114355</v>
-      </c>
-      <c r="H925" t="n">
-        <v>0</v>
-      </c>
-      <c r="I925" t="inlineStr"/>
-      <c r="J925" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K925" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L925" t="n">
-        <v>1</v>
-      </c>
-      <c r="M925" t="inlineStr"/>
-    </row>
-    <row r="926">
-      <c r="A926" s="1" t="n">
-        <v>924</v>
-      </c>
-      <c r="B926" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="C926" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="D926" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="E926" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="F926" t="n">
-        <v>1772.5449</v>
-      </c>
-      <c r="G926" t="n">
-        <v>-119933.859214355</v>
-      </c>
-      <c r="H926" t="n">
-        <v>0</v>
-      </c>
-      <c r="I926" t="inlineStr"/>
-      <c r="J926" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K926" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L926" t="n">
-        <v>1</v>
-      </c>
-      <c r="M926" t="inlineStr"/>
-    </row>
-    <row r="927">
-      <c r="A927" s="1" t="n">
-        <v>925</v>
-      </c>
-      <c r="B927" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="C927" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="D927" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="E927" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="F927" t="n">
-        <v>1529.7492</v>
-      </c>
-      <c r="G927" t="n">
-        <v>-121463.608414355</v>
-      </c>
-      <c r="H927" t="n">
-        <v>0</v>
-      </c>
-      <c r="I927" t="inlineStr"/>
-      <c r="J927" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K927" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L927" t="n">
-        <v>1</v>
-      </c>
-      <c r="M927" t="inlineStr"/>
-    </row>
-    <row r="928">
-      <c r="A928" s="1" t="n">
-        <v>926</v>
-      </c>
-      <c r="B928" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="C928" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="D928" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="E928" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="F928" t="n">
-        <v>1539.8247</v>
-      </c>
-      <c r="G928" t="n">
-        <v>-119923.783714355</v>
-      </c>
-      <c r="H928" t="n">
-        <v>0</v>
-      </c>
-      <c r="I928" t="inlineStr"/>
-      <c r="J928" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K928" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L928" t="n">
-        <v>1</v>
-      </c>
-      <c r="M928" t="inlineStr"/>
-    </row>
-    <row r="929">
-      <c r="A929" s="1" t="n">
-        <v>927</v>
-      </c>
-      <c r="B929" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="C929" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="D929" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="E929" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="F929" t="n">
-        <v>325.4791</v>
-      </c>
-      <c r="G929" t="n">
-        <v>-119923.783714355</v>
-      </c>
-      <c r="H929" t="n">
-        <v>0</v>
-      </c>
-      <c r="I929" t="inlineStr"/>
-      <c r="J929" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K929" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L929" t="n">
-        <v>1</v>
-      </c>
-      <c r="M929" t="inlineStr"/>
-    </row>
-    <row r="930">
-      <c r="A930" s="1" t="n">
-        <v>928</v>
-      </c>
-      <c r="B930" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="C930" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="D930" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="E930" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="F930" t="n">
-        <v>1216.927</v>
-      </c>
-      <c r="G930" t="n">
-        <v>-121140.710714355</v>
-      </c>
-      <c r="H930" t="n">
-        <v>0</v>
-      </c>
-      <c r="I930" t="inlineStr"/>
-      <c r="J930" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K930" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L930" t="n">
-        <v>1</v>
-      </c>
-      <c r="M930" t="inlineStr"/>
-    </row>
-    <row r="931">
-      <c r="A931" s="1" t="n">
-        <v>929</v>
-      </c>
-      <c r="B931" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="C931" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="D931" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="E931" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="F931" t="n">
-        <v>976.4373000000001</v>
-      </c>
-      <c r="G931" t="n">
-        <v>-121140.710714355</v>
-      </c>
-      <c r="H931" t="n">
-        <v>0</v>
-      </c>
-      <c r="I931" t="inlineStr"/>
-      <c r="J931" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K931" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L931" t="n">
-        <v>1</v>
-      </c>
-      <c r="M931" t="inlineStr"/>
-    </row>
-    <row r="932">
-      <c r="A932" s="1" t="n">
-        <v>930</v>
-      </c>
-      <c r="B932" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="C932" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="D932" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="E932" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="F932" t="n">
-        <v>1200.9018</v>
-      </c>
-      <c r="G932" t="n">
-        <v>-121140.710714355</v>
-      </c>
-      <c r="H932" t="n">
-        <v>0</v>
-      </c>
-      <c r="I932" t="inlineStr"/>
-      <c r="J932" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K932" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L932" t="n">
-        <v>1</v>
-      </c>
-      <c r="M932" t="inlineStr"/>
-    </row>
-    <row r="933">
-      <c r="A933" s="1" t="n">
-        <v>931</v>
-      </c>
-      <c r="B933" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="C933" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="D933" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="E933" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="F933" t="n">
-        <v>2095.6367</v>
-      </c>
-      <c r="G933" t="n">
-        <v>-121140.710714355</v>
-      </c>
-      <c r="H933" t="n">
-        <v>0</v>
-      </c>
-      <c r="I933" t="inlineStr"/>
-      <c r="J933" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K933" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L933" t="n">
-        <v>1</v>
-      </c>
-      <c r="M933" t="inlineStr"/>
-    </row>
-    <row r="934">
-      <c r="A934" s="1" t="n">
-        <v>932</v>
-      </c>
-      <c r="B934" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="C934" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="D934" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="E934" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="F934" t="n">
-        <v>325.4791</v>
-      </c>
-      <c r="G934" t="n">
-        <v>-121140.710714355</v>
-      </c>
-      <c r="H934" t="n">
-        <v>0</v>
-      </c>
-      <c r="I934" t="inlineStr"/>
-      <c r="J934" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K934" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L934" t="n">
-        <v>1</v>
-      </c>
-      <c r="M934" t="inlineStr"/>
-    </row>
-    <row r="935">
-      <c r="A935" s="1" t="n">
-        <v>933</v>
-      </c>
-      <c r="B935" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="C935" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="D935" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="E935" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="F935" t="n">
-        <v>884.5196999999999</v>
-      </c>
-      <c r="G935" t="n">
-        <v>-121140.710714355</v>
-      </c>
-      <c r="H935" t="n">
-        <v>0</v>
-      </c>
-      <c r="I935" t="inlineStr"/>
-      <c r="J935" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K935" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L935" t="n">
-        <v>1</v>
-      </c>
-      <c r="M935" t="inlineStr"/>
-    </row>
-    <row r="936">
-      <c r="A936" s="1" t="n">
-        <v>934</v>
-      </c>
-      <c r="B936" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="C936" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="D936" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="E936" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="F936" t="n">
-        <v>872.6165</v>
-      </c>
-      <c r="G936" t="n">
-        <v>-121140.710714355</v>
-      </c>
-      <c r="H936" t="n">
-        <v>0</v>
-      </c>
-      <c r="I936" t="inlineStr"/>
-      <c r="J936" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K936" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L936" t="n">
-        <v>1</v>
-      </c>
-      <c r="M936" t="inlineStr"/>
-    </row>
-    <row r="937">
-      <c r="A937" s="1" t="n">
-        <v>935</v>
-      </c>
-      <c r="B937" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="C937" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="D937" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="E937" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="F937" t="n">
-        <v>650.9582</v>
-      </c>
-      <c r="G937" t="n">
-        <v>-120489.752514355</v>
-      </c>
-      <c r="H937" t="n">
-        <v>0</v>
-      </c>
-      <c r="I937" t="inlineStr"/>
-      <c r="J937" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K937" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L937" t="n">
-        <v>1</v>
-      </c>
-      <c r="M937" t="inlineStr"/>
-    </row>
-    <row r="938">
-      <c r="A938" s="1" t="n">
-        <v>936</v>
-      </c>
-      <c r="B938" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="C938" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="D938" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="E938" t="n">
-        <v>43.59</v>
-      </c>
-      <c r="F938" t="n">
-        <v>1738.9145</v>
-      </c>
-      <c r="G938" t="n">
-        <v>-120489.752514355</v>
-      </c>
-      <c r="H938" t="n">
-        <v>0</v>
-      </c>
-      <c r="I938" t="inlineStr"/>
-      <c r="J938" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K938" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -31656,11 +31392,13 @@
         <v>-121358.583414355</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
-      </c>
-      <c r="I939" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I939" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J939" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K939" t="inlineStr">
         <is>
@@ -31695,11 +31433,13 @@
         <v>-121033.104314355</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
-      </c>
-      <c r="I940" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I940" t="n">
+        <v>43.59</v>
+      </c>
       <c r="J940" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K940" t="inlineStr">
         <is>
@@ -31734,11 +31474,13 @@
         <v>-121913.223414355</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
-      </c>
-      <c r="I941" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I941" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J941" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K941" t="inlineStr">
         <is>
@@ -31773,11 +31515,13 @@
         <v>-121913.223414355</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
-      </c>
-      <c r="I942" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I942" t="n">
+        <v>43.59</v>
+      </c>
       <c r="J942" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K942" t="inlineStr">
         <is>
@@ -31812,11 +31556,13 @@
         <v>-121034.366914355</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
-      </c>
-      <c r="I943" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I943" t="n">
+        <v>43.59</v>
+      </c>
       <c r="J943" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K943" t="inlineStr">
         <is>
@@ -31851,11 +31597,13 @@
         <v>-122220.819514355</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
-      </c>
-      <c r="I944" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I944" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J944" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K944" t="inlineStr">
         <is>
@@ -31890,11 +31638,13 @@
         <v>-121569.861314355</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
-      </c>
-      <c r="I945" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I945" t="n">
+        <v>43.59</v>
+      </c>
       <c r="J945" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K945" t="inlineStr">
         <is>
@@ -31929,11 +31679,13 @@
         <v>-123085.371214355</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
-      </c>
-      <c r="I946" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I946" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J946" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K946" t="inlineStr">
         <is>
@@ -31968,11 +31720,13 @@
         <v>-121340.981114355</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
-      </c>
-      <c r="I947" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I947" t="n">
+        <v>43.59</v>
+      </c>
       <c r="J947" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K947" t="inlineStr">
         <is>
@@ -32007,11 +31761,13 @@
         <v>-123131.572414355</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
-      </c>
-      <c r="I948" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I948" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J948" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K948" t="inlineStr">
         <is>
@@ -32046,11 +31802,13 @@
         <v>-123131.572414355</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
-      </c>
-      <c r="I949" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I949" t="n">
+        <v>43.59</v>
+      </c>
       <c r="J949" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K949" t="inlineStr">
         <is>
@@ -32085,11 +31843,13 @@
         <v>-123131.572414355</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
-      </c>
-      <c r="I950" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I950" t="n">
+        <v>43.59</v>
+      </c>
       <c r="J950" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K950" t="inlineStr">
         <is>
@@ -32124,11 +31884,13 @@
         <v>-122155.135114355</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
-      </c>
-      <c r="I951" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I951" t="n">
+        <v>43.59</v>
+      </c>
       <c r="J951" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K951" t="inlineStr">
         <is>
@@ -32163,11 +31925,13 @@
         <v>-122155.135114355</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
-      </c>
-      <c r="I952" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I952" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J952" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K952" t="inlineStr">
         <is>
@@ -32202,11 +31966,13 @@
         <v>-122155.135114355</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
-      </c>
-      <c r="I953" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I953" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J953" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K953" t="inlineStr">
         <is>
@@ -32241,11 +32007,13 @@
         <v>-123377.001614355</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
-      </c>
-      <c r="I954" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I954" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J954" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K954" t="inlineStr">
         <is>
@@ -32280,11 +32048,13 @@
         <v>-123377.001614355</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
-      </c>
-      <c r="I955" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I955" t="n">
+        <v>43.59</v>
+      </c>
       <c r="J955" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K955" t="inlineStr">
         <is>
@@ -32319,11 +32089,13 @@
         <v>-123377.001614355</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
-      </c>
-      <c r="I956" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I956" t="n">
+        <v>43.59</v>
+      </c>
       <c r="J956" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K956" t="inlineStr">
         <is>
@@ -32358,11 +32130,13 @@
         <v>-122196.235314355</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
-      </c>
-      <c r="I957" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I957" t="n">
+        <v>43.59</v>
+      </c>
       <c r="J957" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K957" t="inlineStr">
         <is>
@@ -32397,11 +32171,13 @@
         <v>-122196.235314355</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
-      </c>
-      <c r="I958" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I958" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J958" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K958" t="inlineStr">
         <is>
@@ -32436,11 +32212,13 @@
         <v>-123702.477214355</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
-      </c>
-      <c r="I959" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I959" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J959" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K959" t="inlineStr">
         <is>
@@ -32475,11 +32253,13 @@
         <v>-124600.281114355</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
-      </c>
-      <c r="I960" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I960" t="n">
+        <v>43.5</v>
+      </c>
       <c r="J960" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K960" t="inlineStr">
         <is>
@@ -32514,11 +32294,13 @@
         <v>-124600.281114355</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
-      </c>
-      <c r="I961" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I961" t="n">
+        <v>43.49</v>
+      </c>
       <c r="J961" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K961" t="inlineStr">
         <is>
@@ -32553,11 +32335,13 @@
         <v>-124600.281114355</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
-      </c>
-      <c r="I962" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I962" t="n">
+        <v>43.49</v>
+      </c>
       <c r="J962" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K962" t="inlineStr">
         <is>
@@ -32592,11 +32376,13 @@
         <v>-124600.281114355</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
-      </c>
-      <c r="I963" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I963" t="n">
+        <v>43.49</v>
+      </c>
       <c r="J963" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K963" t="inlineStr">
         <is>
@@ -32631,11 +32417,13 @@
         <v>-131413.391814355</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
-      </c>
-      <c r="I964" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I964" t="n">
+        <v>43.49</v>
+      </c>
       <c r="J964" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K964" t="inlineStr">
         <is>
@@ -32670,11 +32458,13 @@
         <v>-131413.391814355</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
-      </c>
-      <c r="I965" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I965" t="n">
+        <v>43.35</v>
+      </c>
       <c r="J965" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K965" t="inlineStr">
         <is>
@@ -32709,11 +32499,13 @@
         <v>-131413.391814355</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
-      </c>
-      <c r="I966" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I966" t="n">
+        <v>43.35</v>
+      </c>
       <c r="J966" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K966" t="inlineStr">
         <is>
@@ -32748,11 +32540,13 @@
         <v>-131413.391814355</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
-      </c>
-      <c r="I967" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I967" t="n">
+        <v>43.35</v>
+      </c>
       <c r="J967" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K967" t="inlineStr">
         <is>
@@ -32787,11 +32581,13 @@
         <v>-131413.391814355</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
-      </c>
-      <c r="I968" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I968" t="n">
+        <v>43.35</v>
+      </c>
       <c r="J968" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K968" t="inlineStr">
         <is>
@@ -32826,11 +32622,13 @@
         <v>-129879.839514355</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
-      </c>
-      <c r="I969" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I969" t="n">
+        <v>43.35</v>
+      </c>
       <c r="J969" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K969" t="inlineStr">
         <is>
@@ -32865,11 +32663,13 @@
         <v>-155689.090614355</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
-      </c>
-      <c r="I970" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I970" t="n">
+        <v>43.49</v>
+      </c>
       <c r="J970" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K970" t="inlineStr">
         <is>
@@ -32904,11 +32704,13 @@
         <v>-155363.611514355</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
-      </c>
-      <c r="I971" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I971" t="n">
+        <v>43.3</v>
+      </c>
       <c r="J971" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K971" t="inlineStr">
         <is>
@@ -32949,7 +32751,7 @@
         <v>43.39</v>
       </c>
       <c r="J972" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K972" t="inlineStr">
         <is>
@@ -32984,11 +32786,13 @@
         <v>-152945.257414355</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
-      </c>
-      <c r="I973" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I973" t="n">
+        <v>43.4</v>
+      </c>
       <c r="J973" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K973" t="inlineStr">
         <is>
@@ -33023,11 +32827,13 @@
         <v>-149768.591014355</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
-      </c>
-      <c r="I974" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I974" t="n">
+        <v>43.4</v>
+      </c>
       <c r="J974" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K974" t="inlineStr">
         <is>
@@ -33062,11 +32868,13 @@
         <v>-151178.181114355</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
-      </c>
-      <c r="I975" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I975" t="n">
+        <v>43.58</v>
+      </c>
       <c r="J975" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K975" t="inlineStr">
         <is>
@@ -33101,11 +32909,13 @@
         <v>-149389.977714355</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
-      </c>
-      <c r="I976" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I976" t="n">
+        <v>43.52</v>
+      </c>
       <c r="J976" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K976" t="inlineStr">
         <is>
@@ -33140,11 +32950,13 @@
         <v>-150642.663314355</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
-      </c>
-      <c r="I977" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I977" t="n">
+        <v>43.56</v>
+      </c>
       <c r="J977" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K977" t="inlineStr">
         <is>
@@ -33179,11 +32991,13 @@
         <v>-150642.663314355</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
-      </c>
-      <c r="I978" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I978" t="n">
+        <v>43.4</v>
+      </c>
       <c r="J978" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K978" t="inlineStr">
         <is>
@@ -33218,11 +33032,13 @@
         <v>-146845.863114355</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
-      </c>
-      <c r="I979" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I979" t="n">
+        <v>43.4</v>
+      </c>
       <c r="J979" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K979" t="inlineStr">
         <is>
@@ -33257,11 +33073,13 @@
         <v>-158284.645076368</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
-      </c>
-      <c r="I980" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I980" t="n">
+        <v>43.55</v>
+      </c>
       <c r="J980" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K980" t="inlineStr">
         <is>
@@ -33296,11 +33114,13 @@
         <v>-156406.559976368</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
-      </c>
-      <c r="I981" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I981" t="n">
+        <v>43.5</v>
+      </c>
       <c r="J981" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K981" t="inlineStr">
         <is>
@@ -33335,11 +33155,13 @@
         <v>-163999.345776368</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
-      </c>
-      <c r="I982" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I982" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J982" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K982" t="inlineStr">
         <is>
@@ -33374,11 +33196,13 @@
         <v>-163999.345776368</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
-      </c>
-      <c r="I983" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I983" t="n">
+        <v>43.5</v>
+      </c>
       <c r="J983" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K983" t="inlineStr">
         <is>
@@ -33413,11 +33237,13 @@
         <v>-163348.3875763681</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
-      </c>
-      <c r="I984" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I984" t="n">
+        <v>43.5</v>
+      </c>
       <c r="J984" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K984" t="inlineStr">
         <is>
@@ -33452,11 +33278,13 @@
         <v>-161804.4581763681</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
-      </c>
-      <c r="I985" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I985" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J985" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K985" t="inlineStr">
         <is>
@@ -33491,11 +33319,13 @@
         <v>-163352.798576368</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
-      </c>
-      <c r="I986" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I986" t="n">
+        <v>43.61</v>
+      </c>
       <c r="J986" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K986" t="inlineStr">
         <is>
@@ -33530,11 +33360,13 @@
         <v>-161840.032576368</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
-      </c>
-      <c r="I987" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I987" t="n">
+        <v>43.59</v>
+      </c>
       <c r="J987" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K987" t="inlineStr">
         <is>
@@ -33569,11 +33401,13 @@
         <v>-162165.511676368</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
-      </c>
-      <c r="I988" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I988" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J988" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K988" t="inlineStr">
         <is>
@@ -33608,11 +33442,13 @@
         <v>-161730.032576368</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
-      </c>
-      <c r="I989" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I989" t="n">
+        <v>43.59</v>
+      </c>
       <c r="J989" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K989" t="inlineStr">
         <is>
@@ -33647,11 +33483,13 @@
         <v>-163811.525276368</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
-      </c>
-      <c r="I990" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I990" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J990" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K990" t="inlineStr">
         <is>
@@ -33686,11 +33524,13 @@
         <v>-161917.0095763681</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
-      </c>
-      <c r="I991" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I991" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J991" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K991" t="inlineStr">
         <is>
@@ -33725,11 +33565,13 @@
         <v>-162877.5710763681</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
-      </c>
-      <c r="I992" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I992" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J992" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K992" t="inlineStr">
         <is>
@@ -33768,7 +33610,7 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K993" t="inlineStr">
         <is>
@@ -33803,11 +33645,13 @@
         <v>-161575.6546763681</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
-      </c>
-      <c r="I994" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I994" t="n">
+        <v>43.59</v>
+      </c>
       <c r="J994" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K994" t="inlineStr">
         <is>
@@ -33842,11 +33686,13 @@
         <v>-161575.6546763681</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
-      </c>
-      <c r="I995" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I995" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J995" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K995" t="inlineStr">
         <is>
@@ -33881,11 +33727,13 @@
         <v>-163082.3680763681</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
-      </c>
-      <c r="I996" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I996" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J996" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K996" t="inlineStr">
         <is>
@@ -33920,11 +33768,13 @@
         <v>-163082.3680763681</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
-      </c>
-      <c r="I997" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I997" t="n">
+        <v>43.59</v>
+      </c>
       <c r="J997" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K997" t="inlineStr">
         <is>
@@ -33959,11 +33809,13 @@
         <v>-163082.3680763681</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
-      </c>
-      <c r="I998" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I998" t="n">
+        <v>43.59</v>
+      </c>
       <c r="J998" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K998" t="inlineStr">
         <is>
@@ -33998,11 +33850,13 @@
         <v>-163082.3680763681</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
-      </c>
-      <c r="I999" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I999" t="n">
+        <v>43.59</v>
+      </c>
       <c r="J999" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K999" t="inlineStr">
         <is>
@@ -34037,11 +33891,13 @@
         <v>-163438.7797763681</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1000" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1000" t="n">
+        <v>43.59</v>
+      </c>
       <c r="J1000" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1000" t="inlineStr">
         <is>
@@ -34080,7 +33936,7 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1001" t="inlineStr">
         <is>
@@ -34119,7 +33975,7 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1002" t="inlineStr">
         <is>
@@ -34158,7 +34014,7 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1003" t="inlineStr">
         <is>
@@ -34193,11 +34049,13 @@
         <v>-160359.6893763681</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1004" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J1004" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1004" t="inlineStr">
         <is>
@@ -34236,7 +34094,7 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1005" t="inlineStr">
         <is>
@@ -34275,7 +34133,7 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1006" t="inlineStr">
         <is>
@@ -34314,7 +34172,7 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1007" t="inlineStr">
         <is>
@@ -34353,7 +34211,7 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1008" t="inlineStr">
         <is>
@@ -34392,7 +34250,7 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1009" t="inlineStr">
         <is>
@@ -34431,7 +34289,7 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1010" t="inlineStr">
         <is>
@@ -34470,7 +34328,7 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1011" t="inlineStr">
         <is>
@@ -34505,11 +34363,13 @@
         <v>-161735.3647763681</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1012" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J1012" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1012" t="inlineStr">
         <is>
@@ -34544,11 +34404,13 @@
         <v>-163620.2177763681</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1013" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J1013" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1013" t="inlineStr">
         <is>
@@ -34583,11 +34445,13 @@
         <v>-162624.2883763681</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1014" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J1014" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1014" t="inlineStr">
         <is>
@@ -34622,11 +34486,13 @@
         <v>-162624.2883763681</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1015" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J1015" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1015" t="inlineStr">
         <is>
@@ -34661,11 +34527,13 @@
         <v>-164480.8204763681</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1016" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J1016" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1016" t="inlineStr">
         <is>
@@ -34700,11 +34568,13 @@
         <v>-164480.8204763681</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1017" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J1017" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1017" t="inlineStr">
         <is>
@@ -34739,11 +34609,13 @@
         <v>-164806.2995763681</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1018" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J1018" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1018" t="inlineStr">
         <is>
@@ -34778,11 +34650,13 @@
         <v>-163617.5531763681</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1019" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>43.59</v>
+      </c>
       <c r="J1019" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1019" t="inlineStr">
         <is>
@@ -34817,11 +34691,13 @@
         <v>-162966.5949763681</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1020" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J1020" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1020" t="inlineStr">
         <is>
@@ -34856,11 +34732,13 @@
         <v>-162966.5949763681</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1021" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>43.61</v>
+      </c>
       <c r="J1021" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1021" t="inlineStr">
         <is>
@@ -34895,11 +34773,13 @@
         <v>-167014.8764763681</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1022" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>43.61</v>
+      </c>
       <c r="J1022" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1022" t="inlineStr">
         <is>
@@ -34934,11 +34814,13 @@
         <v>-166689.3973763681</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1023" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J1023" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1023" t="inlineStr">
         <is>
@@ -34973,11 +34855,13 @@
         <v>-167883.4142763681</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1024" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>43.61</v>
+      </c>
       <c r="J1024" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1024" t="inlineStr">
         <is>
@@ -35012,11 +34896,13 @@
         <v>-167883.4142763681</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1025" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J1025" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1025" t="inlineStr">
         <is>
@@ -35051,11 +34937,13 @@
         <v>-169625.8658763681</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1026" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J1026" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1026" t="inlineStr">
         <is>
@@ -35090,11 +34978,13 @@
         <v>-169625.8658763681</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1027" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>43.59</v>
+      </c>
       <c r="J1027" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1027" t="inlineStr">
         <is>
@@ -35129,11 +35019,13 @@
         <v>-169625.8658763681</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1028" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>43.59</v>
+      </c>
       <c r="J1028" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1028" t="inlineStr">
         <is>
@@ -35168,11 +35060,13 @@
         <v>-168974.9076763681</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1029" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>43.59</v>
+      </c>
       <c r="J1029" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1029" t="inlineStr">
         <is>
@@ -35207,11 +35101,13 @@
         <v>-169849.4955763681</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1030" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>43.61</v>
+      </c>
       <c r="J1030" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1030" t="inlineStr">
         <is>
@@ -35246,11 +35142,13 @@
         <v>-169849.4955763681</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1031" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J1031" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1031" t="inlineStr">
         <is>
@@ -35285,11 +35183,13 @@
         <v>-169849.4955763681</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1032" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J1032" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1032" t="inlineStr">
         <is>
@@ -35324,11 +35224,13 @@
         <v>-169849.4955763681</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1033" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J1033" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1033" t="inlineStr">
         <is>
@@ -35363,11 +35265,13 @@
         <v>-169849.4955763681</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1034" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J1034" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1034" t="inlineStr">
         <is>
@@ -35402,11 +35306,13 @@
         <v>-169849.4955763681</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1035" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J1035" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1035" t="inlineStr">
         <is>
@@ -35441,11 +35347,13 @@
         <v>-168975.7975763681</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1036" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J1036" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1036" t="inlineStr">
         <is>
@@ -35480,11 +35388,13 @@
         <v>-169847.1662763681</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1037" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>43.61</v>
+      </c>
       <c r="J1037" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1037" t="inlineStr">
         <is>
@@ -35519,11 +35429,13 @@
         <v>-167174.7356763681</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1038" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>43.59</v>
+      </c>
       <c r="J1038" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1038" t="inlineStr">
         <is>
@@ -35558,11 +35470,13 @@
         <v>-167174.7356763681</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1039" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J1039" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1039" t="inlineStr">
         <is>
@@ -35603,7 +35517,7 @@
         <v>43.6</v>
       </c>
       <c r="J1040" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1040" t="inlineStr">
         <is>
@@ -35644,7 +35558,7 @@
         <v>43.6</v>
       </c>
       <c r="J1041" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1041" t="inlineStr">
         <is>
@@ -35685,7 +35599,7 @@
         <v>43.61</v>
       </c>
       <c r="J1042" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1042" t="inlineStr">
         <is>
@@ -35726,7 +35640,7 @@
         <v>43.6</v>
       </c>
       <c r="J1043" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1043" t="inlineStr">
         <is>
@@ -35767,7 +35681,7 @@
         <v>43.59</v>
       </c>
       <c r="J1044" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1044" t="inlineStr">
         <is>
@@ -35808,7 +35722,7 @@
         <v>43.6</v>
       </c>
       <c r="J1045" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1045" t="inlineStr">
         <is>
@@ -35849,7 +35763,7 @@
         <v>43.6</v>
       </c>
       <c r="J1046" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1046" t="inlineStr">
         <is>
@@ -35890,7 +35804,7 @@
         <v>43.61</v>
       </c>
       <c r="J1047" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1047" t="inlineStr">
         <is>
@@ -35931,7 +35845,7 @@
         <v>43.59</v>
       </c>
       <c r="J1048" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1048" t="inlineStr">
         <is>
@@ -35972,7 +35886,7 @@
         <v>43.59</v>
       </c>
       <c r="J1049" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1049" t="inlineStr">
         <is>
@@ -36013,7 +35927,7 @@
         <v>43.61</v>
       </c>
       <c r="J1050" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1050" t="inlineStr">
         <is>
@@ -36054,7 +35968,7 @@
         <v>43.6</v>
       </c>
       <c r="J1051" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1051" t="inlineStr">
         <is>
@@ -36095,7 +36009,7 @@
         <v>43.6</v>
       </c>
       <c r="J1052" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1052" t="inlineStr">
         <is>
@@ -36136,7 +36050,7 @@
         <v>43.61</v>
       </c>
       <c r="J1053" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1053" t="inlineStr">
         <is>
@@ -36177,7 +36091,7 @@
         <v>43.59</v>
       </c>
       <c r="J1054" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1054" t="inlineStr">
         <is>
@@ -36218,7 +36132,7 @@
         <v>43.5</v>
       </c>
       <c r="J1055" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1055" t="inlineStr">
         <is>
@@ -36259,7 +36173,7 @@
         <v>43.7</v>
       </c>
       <c r="J1056" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1056" t="inlineStr">
         <is>
@@ -36300,7 +36214,7 @@
         <v>43.7</v>
       </c>
       <c r="J1057" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1057" t="inlineStr">
         <is>
@@ -36341,7 +36255,7 @@
         <v>43.7</v>
       </c>
       <c r="J1058" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1058" t="inlineStr">
         <is>
@@ -36376,11 +36290,13 @@
         <v>-169562.6845763681</v>
       </c>
       <c r="H1059" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1059" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J1059" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1059" t="inlineStr">
         <is>
@@ -36415,11 +36331,13 @@
         <v>-169495.2861763681</v>
       </c>
       <c r="H1060" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1060" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>43.5</v>
+      </c>
       <c r="J1060" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1060" t="inlineStr">
         <is>
@@ -36454,11 +36372,13 @@
         <v>-169495.2861763681</v>
       </c>
       <c r="H1061" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1061" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J1061" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1061" t="inlineStr">
         <is>
@@ -36493,11 +36413,13 @@
         <v>-169624.7568763681</v>
       </c>
       <c r="H1062" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1062" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J1062" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1062" t="inlineStr">
         <is>
@@ -36538,7 +36460,7 @@
         <v>43.5</v>
       </c>
       <c r="J1063" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1063" t="inlineStr">
         <is>
@@ -36573,11 +36495,13 @@
         <v>-169592.5235763681</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1064" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J1064" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1064" t="inlineStr">
         <is>
@@ -36612,11 +36536,13 @@
         <v>-169577.1411763681</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1065" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J1065" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1065" t="inlineStr">
         <is>
@@ -36651,11 +36577,13 @@
         <v>-170230.5405763681</v>
       </c>
       <c r="H1066" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1066" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J1066" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1066" t="inlineStr">
         <is>
@@ -36690,11 +36618,13 @@
         <v>-170108.9626763681</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1067" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J1067" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1067" t="inlineStr">
         <is>
@@ -36729,11 +36659,13 @@
         <v>-170108.9626763681</v>
       </c>
       <c r="H1068" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1068" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>43.9</v>
+      </c>
       <c r="J1068" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1068" t="inlineStr">
         <is>
@@ -36768,11 +36700,13 @@
         <v>-171309.4041763681</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1069" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>43.9</v>
+      </c>
       <c r="J1069" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1069" t="inlineStr">
         <is>
@@ -36807,11 +36741,13 @@
         <v>-171309.4041763681</v>
       </c>
       <c r="H1070" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1070" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J1070" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1070" t="inlineStr">
         <is>
@@ -36846,11 +36782,13 @@
         <v>-171309.4041763681</v>
       </c>
       <c r="H1071" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1071" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J1071" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1071" t="inlineStr">
         <is>
@@ -36885,11 +36823,13 @@
         <v>-171309.4041763681</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1072" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J1072" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1072" t="inlineStr">
         <is>
@@ -36924,11 +36864,13 @@
         <v>-171309.4041763681</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1073" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J1073" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1073" t="inlineStr">
         <is>
@@ -36963,11 +36905,13 @@
         <v>-171309.4041763681</v>
       </c>
       <c r="H1074" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1074" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J1074" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1074" t="inlineStr">
         <is>
@@ -37002,11 +36946,13 @@
         <v>-171309.4041763681</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1075" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J1075" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1075" t="inlineStr">
         <is>
@@ -37041,11 +36987,13 @@
         <v>-171309.4041763681</v>
       </c>
       <c r="H1076" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1076" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J1076" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1076" t="inlineStr">
         <is>
@@ -37080,11 +37028,13 @@
         <v>-171309.4041763681</v>
       </c>
       <c r="H1077" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1077" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J1077" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1077" t="inlineStr">
         <is>
@@ -37119,11 +37069,13 @@
         <v>-173082.2508763681</v>
       </c>
       <c r="H1078" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1078" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J1078" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1078" t="inlineStr">
         <is>
@@ -37158,11 +37110,13 @@
         <v>-172968.3556599681</v>
       </c>
       <c r="H1079" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1079" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J1079" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1079" t="inlineStr">
         <is>
@@ -37197,11 +37151,13 @@
         <v>-181347.4214599681</v>
       </c>
       <c r="H1080" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1080" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>43.9</v>
+      </c>
       <c r="J1080" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1080" t="inlineStr">
         <is>
@@ -37236,11 +37192,13 @@
         <v>-180930.7332599681</v>
       </c>
       <c r="H1081" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1081" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J1081" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1081" t="inlineStr">
         <is>
@@ -37275,11 +37233,13 @@
         <v>-182184.9523599681</v>
       </c>
       <c r="H1082" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1082" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>43.9</v>
+      </c>
       <c r="J1082" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1082" t="inlineStr">
         <is>
@@ -37314,11 +37274,13 @@
         <v>-181326.5582599681</v>
       </c>
       <c r="H1083" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1083" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J1083" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1083" t="inlineStr">
         <is>
@@ -37353,11 +37315,13 @@
         <v>-182217.4431599681</v>
       </c>
       <c r="H1084" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1084" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J1084" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1084" t="inlineStr">
         <is>
@@ -37392,11 +37356,13 @@
         <v>-183266.2007599681</v>
       </c>
       <c r="H1085" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1085" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J1085" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1085" t="inlineStr">
         <is>
@@ -37431,11 +37397,13 @@
         <v>-181906.7603599681</v>
       </c>
       <c r="H1086" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1086" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J1086" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1086" t="inlineStr">
         <is>
@@ -37470,11 +37438,13 @@
         <v>-181906.7603599681</v>
       </c>
       <c r="H1087" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1087" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J1087" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1087" t="inlineStr">
         <is>
@@ -37509,11 +37479,13 @@
         <v>-180930.3230599681</v>
       </c>
       <c r="H1088" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1088" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J1088" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1088" t="inlineStr">
         <is>
@@ -37548,11 +37520,13 @@
         <v>-180930.3230599681</v>
       </c>
       <c r="H1089" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1089" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J1089" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1089" t="inlineStr">
         <is>
@@ -37587,11 +37561,13 @@
         <v>-181581.2812599681</v>
       </c>
       <c r="H1090" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1090" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J1090" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1090" t="inlineStr">
         <is>
@@ -37626,11 +37602,13 @@
         <v>-180707.3201599681</v>
       </c>
       <c r="H1091" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1091" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J1091" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1091" t="inlineStr">
         <is>
@@ -37665,11 +37643,13 @@
         <v>-180707.3201599681</v>
       </c>
       <c r="H1092" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1092" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J1092" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1092" t="inlineStr">
         <is>
@@ -37704,11 +37684,13 @@
         <v>-180707.3201599681</v>
       </c>
       <c r="H1093" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1093" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J1093" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1093" t="inlineStr">
         <is>
@@ -37743,11 +37725,13 @@
         <v>-180707.3201599681</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1094" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J1094" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1094" t="inlineStr">
         <is>
@@ -37782,11 +37766,13 @@
         <v>-180707.3201599681</v>
       </c>
       <c r="H1095" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1095" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J1095" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1095" t="inlineStr">
         <is>
@@ -37821,11 +37807,13 @@
         <v>-181602.4178599681</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1096" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J1096" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1096" t="inlineStr">
         <is>
@@ -37860,11 +37848,13 @@
         <v>-180096.4476599681</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1097" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J1097" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1097" t="inlineStr">
         <is>
@@ -37899,11 +37889,13 @@
         <v>-180747.4058599681</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1098" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1098" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J1098" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1098" t="inlineStr">
         <is>
@@ -37938,11 +37930,13 @@
         <v>-179862.1426599681</v>
       </c>
       <c r="H1099" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1099" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1099" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J1099" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1099" t="inlineStr">
         <is>
@@ -37977,11 +37971,13 @@
         <v>-180187.6217599681</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1100" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J1100" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1100" t="inlineStr">
         <is>
@@ -38016,11 +38012,13 @@
         <v>-179862.1426599681</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J1101" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1101" t="inlineStr">
         <is>
@@ -38055,11 +38053,13 @@
         <v>-179862.1426599681</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1102" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J1102" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1102" t="inlineStr">
         <is>
@@ -38094,11 +38094,13 @@
         <v>-181630.6079599682</v>
       </c>
       <c r="H1103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J1103" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1103" t="inlineStr">
         <is>
@@ -38133,11 +38135,13 @@
         <v>-181535.9048599681</v>
       </c>
       <c r="H1104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1104" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J1104" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1104" t="inlineStr">
         <is>
@@ -38176,7 +38180,7 @@
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1105" t="inlineStr">
         <is>
@@ -38215,7 +38219,7 @@
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1106" t="inlineStr">
         <is>
@@ -38254,7 +38258,7 @@
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1107" t="inlineStr">
         <is>
@@ -38293,7 +38297,7 @@
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1108" t="inlineStr">
         <is>
@@ -38332,7 +38336,7 @@
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1109" t="inlineStr">
         <is>
@@ -38371,7 +38375,7 @@
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1110" t="inlineStr">
         <is>
@@ -38410,7 +38414,7 @@
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1111" t="inlineStr">
         <is>
@@ -38445,11 +38449,13 @@
         <v>-181651.1860599681</v>
       </c>
       <c r="H1112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1112" t="n">
+        <v>43.9</v>
+      </c>
       <c r="J1112" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1112" t="inlineStr">
         <is>
@@ -38484,11 +38490,13 @@
         <v>-181490.8486599681</v>
       </c>
       <c r="H1113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1113" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J1113" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1113" t="inlineStr">
         <is>
@@ -38523,11 +38531,13 @@
         <v>-181490.8486599681</v>
       </c>
       <c r="H1114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1114" t="n">
+        <v>43.9</v>
+      </c>
       <c r="J1114" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1114" t="inlineStr">
         <is>
@@ -38562,11 +38572,13 @@
         <v>-182253.5114599681</v>
       </c>
       <c r="H1115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1115" t="n">
+        <v>43.9</v>
+      </c>
       <c r="J1115" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1115" t="inlineStr">
         <is>
@@ -38601,11 +38613,13 @@
         <v>-182253.5114599681</v>
       </c>
       <c r="H1116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1116" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J1116" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1116" t="inlineStr">
         <is>
@@ -38640,11 +38654,13 @@
         <v>-180370.2883599681</v>
       </c>
       <c r="H1117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1117" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J1117" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1117" t="inlineStr">
         <is>
@@ -38679,11 +38695,13 @@
         <v>-182344.7646599681</v>
       </c>
       <c r="H1118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1118" t="n">
+        <v>43.9</v>
+      </c>
       <c r="J1118" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1118" t="inlineStr">
         <is>
@@ -38718,11 +38736,13 @@
         <v>-182344.7646599681</v>
       </c>
       <c r="H1119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1119" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J1119" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1119" t="inlineStr">
         <is>
@@ -38757,11 +38777,13 @@
         <v>-180261.8677599682</v>
       </c>
       <c r="H1120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J1120" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1120" t="inlineStr">
         <is>
@@ -38796,11 +38818,13 @@
         <v>-180653.3468599682</v>
       </c>
       <c r="H1121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1121" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J1121" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1121" t="inlineStr">
         <is>
@@ -38835,11 +38859,13 @@
         <v>-180239.8677599682</v>
       </c>
       <c r="H1122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1122" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J1122" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1122" t="inlineStr">
         <is>
@@ -38874,11 +38900,13 @@
         <v>-182463.6362599682</v>
       </c>
       <c r="H1123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1123" t="n">
+        <v>43.9</v>
+      </c>
       <c r="J1123" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1123" t="inlineStr">
         <is>
@@ -38913,11 +38941,13 @@
         <v>-181584.7728599682</v>
       </c>
       <c r="H1124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1124" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J1124" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1124" t="inlineStr">
         <is>
@@ -38952,11 +38982,13 @@
         <v>-181584.7728599682</v>
       </c>
       <c r="H1125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1125" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J1125" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1125" t="inlineStr">
         <is>
@@ -38991,11 +39023,13 @@
         <v>-180375.5019599682</v>
       </c>
       <c r="H1126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J1126" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1126" t="inlineStr">
         <is>
@@ -39030,11 +39064,13 @@
         <v>-181608.6507599681</v>
       </c>
       <c r="H1127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J1127" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1127" t="inlineStr">
         <is>
@@ -39069,11 +39105,13 @@
         <v>-245622.0194599681</v>
       </c>
       <c r="H1128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1128" t="n">
+        <v>43.6</v>
+      </c>
       <c r="J1128" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1128" t="inlineStr">
         <is>
@@ -39108,13 +39146,11 @@
         <v>-245622.0194599681</v>
       </c>
       <c r="H1129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1129" t="n">
-        <v>43.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1129" t="inlineStr">
         <is>
@@ -39149,13 +39185,11 @@
         <v>-245490.0194599681</v>
       </c>
       <c r="H1130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1130" t="n">
-        <v>43.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1130" t="inlineStr">
         <is>
@@ -39190,13 +39224,11 @@
         <v>-245490.0194599681</v>
       </c>
       <c r="H1131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1131" t="n">
-        <v>43.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1131" t="inlineStr">
         <is>
@@ -39231,13 +39263,11 @@
         <v>-231876.5063599681</v>
       </c>
       <c r="H1132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1132" t="n">
-        <v>43.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1132" t="inlineStr">
         <is>
@@ -39272,13 +39302,11 @@
         <v>-241218.5402599681</v>
       </c>
       <c r="H1133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1133" t="n">
-        <v>43.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1133" t="inlineStr">
         <is>
@@ -39317,7 +39345,7 @@
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1134" t="inlineStr">
         <is>
@@ -39352,11 +39380,13 @@
         <v>-222866.6414599681</v>
       </c>
       <c r="H1135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1135" t="n">
+        <v>43.7</v>
+      </c>
       <c r="J1135" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1135" t="inlineStr">
         <is>
@@ -39395,7 +39425,7 @@
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1136" t="inlineStr">
         <is>
@@ -39434,7 +39464,7 @@
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1137" t="inlineStr">
         <is>
@@ -39473,7 +39503,7 @@
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1138" t="inlineStr">
         <is>
@@ -39512,7 +39542,7 @@
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1139" t="inlineStr">
         <is>
@@ -39551,7 +39581,7 @@
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1140" t="inlineStr">
         <is>
@@ -39590,7 +39620,7 @@
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1141" t="inlineStr">
         <is>
@@ -39629,7 +39659,7 @@
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1142" t="inlineStr">
         <is>
@@ -39668,7 +39698,7 @@
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1143" t="inlineStr">
         <is>
@@ -39707,7 +39737,7 @@
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1144" t="inlineStr">
         <is>
@@ -39746,7 +39776,7 @@
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1145" t="inlineStr">
         <is>
@@ -39785,7 +39815,7 @@
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1146" t="inlineStr">
         <is>
@@ -39824,7 +39854,7 @@
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1147" t="inlineStr">
         <is>
@@ -39863,7 +39893,7 @@
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1148" t="inlineStr">
         <is>
@@ -39902,7 +39932,7 @@
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1149" t="inlineStr">
         <is>
@@ -39941,7 +39971,7 @@
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1150" t="inlineStr">
         <is>
@@ -39980,7 +40010,7 @@
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1151" t="inlineStr">
         <is>
@@ -40019,7 +40049,7 @@
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1152" t="inlineStr">
         <is>
@@ -40058,7 +40088,7 @@
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1153" t="inlineStr">
         <is>
@@ -40097,7 +40127,7 @@
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1154" t="inlineStr">
         <is>
@@ -40136,7 +40166,7 @@
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1155" t="inlineStr">
         <is>
@@ -40175,7 +40205,7 @@
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1156" t="inlineStr">
         <is>
@@ -40214,7 +40244,7 @@
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1157" t="inlineStr">
         <is>
@@ -40253,7 +40283,7 @@
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1158" t="inlineStr">
         <is>
@@ -40292,7 +40322,7 @@
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1159" t="inlineStr">
         <is>
@@ -40331,7 +40361,7 @@
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1160" t="inlineStr">
         <is>
@@ -40370,7 +40400,7 @@
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1161" t="inlineStr">
         <is>
@@ -40409,7 +40439,7 @@
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1162" t="inlineStr">
         <is>
@@ -40448,7 +40478,7 @@
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1163" t="inlineStr">
         <is>
@@ -40487,7 +40517,7 @@
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1164" t="inlineStr">
         <is>
@@ -40526,7 +40556,7 @@
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1165" t="inlineStr">
         <is>
@@ -40565,7 +40595,7 @@
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1166" t="inlineStr">
         <is>
@@ -40604,7 +40634,7 @@
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1167" t="inlineStr">
         <is>
@@ -40643,7 +40673,7 @@
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1168" t="inlineStr">
         <is>
@@ -40678,11 +40708,13 @@
         <v>-230866.4161599681</v>
       </c>
       <c r="H1169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J1169" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1169" t="inlineStr">
         <is>
@@ -40717,11 +40749,13 @@
         <v>-230814.3646599681</v>
       </c>
       <c r="H1170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J1170" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1170" t="inlineStr">
         <is>
@@ -40760,7 +40794,7 @@
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1171" t="inlineStr">
         <is>
@@ -40799,7 +40833,7 @@
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1172" t="inlineStr">
         <is>
@@ -40838,7 +40872,7 @@
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1173" t="inlineStr">
         <is>
@@ -40877,7 +40911,7 @@
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1174" t="inlineStr">
         <is>
@@ -40912,11 +40946,13 @@
         <v>-230863.9912599681</v>
       </c>
       <c r="H1175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>44</v>
+      </c>
       <c r="J1175" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1175" t="inlineStr">
         <is>
@@ -40951,11 +40987,13 @@
         <v>-230863.9912599681</v>
       </c>
       <c r="H1176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J1176" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1176" t="inlineStr">
         <is>
@@ -40990,11 +41028,13 @@
         <v>-230756.5644599681</v>
       </c>
       <c r="H1177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>43.8</v>
+      </c>
       <c r="J1177" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1177" t="inlineStr">
         <is>
@@ -41029,11 +41069,13 @@
         <v>-230668.5644599681</v>
       </c>
       <c r="H1178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>44</v>
+      </c>
       <c r="J1178" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1178" t="inlineStr">
         <is>
@@ -41072,7 +41114,7 @@
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1179" t="inlineStr">
         <is>
@@ -41111,7 +41153,7 @@
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="n">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="K1180" t="inlineStr">
         <is>
